--- a/results_partial.xlsx
+++ b/results_partial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technion\project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technion\project2\bitcoin-git\bitcoin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AF3BC0EF-2EC6-4941-8BF4-CBA451FD1275}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{061CE0F8-FABE-49C6-B2C4-8FDC4EA05E14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="utxo" sheetId="3" r:id="rId3"/>
     <sheet name="topology" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -63,11 +63,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -144,7 +144,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -155,21 +155,18 @@
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="3"/>
-    <cellStyle name="Result2" xfId="4"/>
+    <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -777,64 +774,34 @@
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65%"/>
-                          <a:lumOff val="35%"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-IL"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>utxo!$B$12:$B$18</c:f>
+              <c:f>utxo!$A$12:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.8000000000000002E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -933,7 +900,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0%"/>
-                  <a:t> size (MB)</a:t>
+                  <a:t> set size (% out of 1.8MB cache)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -4823,7 +4790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X137"/>
   <sheetViews>
     <sheetView topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -7284,373 +7251,373 @@
         <v>1.4365088740987308</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="12" customFormat="1">
-      <c r="A33" s="10">
+    <row r="33" spans="1:24" s="10" customFormat="1">
+      <c r="A33" s="1">
         <v>1.5</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="1">
         <v>50</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="1">
         <v>20</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="6">
         <v>0</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="6">
         <v>1.60706233978271</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="6">
         <v>1.8386418819427499</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="6">
         <v>1.8825809955596899</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="6">
         <v>1.8852469921112101</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="6">
         <v>1.88809370994568</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="6">
         <v>1.94440793991089</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="6">
         <v>1.95726370811462</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="6">
         <v>1.9625830650329601</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="6">
         <v>1.9703285694122299</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="6">
         <v>1.97933721542358</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P33" s="6">
         <v>1.98527908325195</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q33" s="6">
         <v>1.9935712814331099</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R33" s="6">
         <v>1.9976515769958501</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S33" s="6">
         <v>2.00198578834534</v>
       </c>
-      <c r="T33" s="11">
+      <c r="T33" s="6">
         <v>2.0210442543029798</v>
       </c>
-      <c r="U33" s="11">
+      <c r="U33" s="6">
         <v>2.0915722846984899</v>
       </c>
-      <c r="V33" s="11">
+      <c r="V33" s="6">
         <v>2.0988569259643599</v>
       </c>
-      <c r="W33" s="11">
+      <c r="W33" s="6">
         <v>2.1107945442199698</v>
       </c>
-      <c r="X33" s="11">
+      <c r="X33" s="6">
         <v>2.1334860324859601</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="12" customFormat="1">
-      <c r="A34" s="10">
+    <row r="34" spans="1:24" s="10" customFormat="1">
+      <c r="A34" s="1">
         <v>1.5</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="1">
         <v>50</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="1">
         <v>20</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="6">
         <v>0</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="6">
         <v>1.6697802543640099</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="6">
         <v>1.69947290420532</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="6">
         <v>1.7554006576538099</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="6">
         <v>1.7568898200988801</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="6">
         <v>1.76495313644409</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="6">
         <v>1.88708591461182</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="6">
         <v>1.9064583778381301</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="6">
         <v>1.91189742088318</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="6">
         <v>1.92561388015747</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34" s="6">
         <v>1.93053722381592</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34" s="6">
         <v>1.95553970336914</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q34" s="6">
         <v>1.9643137454986599</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R34" s="6">
         <v>1.99063849449158</v>
       </c>
-      <c r="S34" s="11">
+      <c r="S34" s="6">
         <v>1.99393057823181</v>
       </c>
-      <c r="T34" s="11">
+      <c r="T34" s="6">
         <v>1.9992659091949501</v>
       </c>
-      <c r="U34" s="11">
+      <c r="U34" s="6">
         <v>2.0087399482727002</v>
       </c>
-      <c r="V34" s="11">
+      <c r="V34" s="6">
         <v>2.0192892551422101</v>
       </c>
-      <c r="W34" s="11">
+      <c r="W34" s="6">
         <v>2.0309875011444101</v>
       </c>
-      <c r="X34" s="11">
+      <c r="X34" s="6">
         <v>2.0817832946777299</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="12" customFormat="1">
-      <c r="A35" s="10">
+    <row r="35" spans="1:24" s="10" customFormat="1">
+      <c r="A35" s="1">
         <v>1.5</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="1">
         <v>50</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="1">
         <v>20</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="6">
         <v>0</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="6">
         <v>1.7054476737976101</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="6">
         <v>1.8173346519470199</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="6">
         <v>1.88997554779053</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="6">
         <v>1.8911926746368399</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="6">
         <v>1.9160144329071001</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="6">
         <v>1.91658186912537</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="6">
         <v>1.9237358570098899</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M35" s="6">
         <v>1.9391505718231199</v>
       </c>
-      <c r="N35" s="11">
+      <c r="N35" s="6">
         <v>1.9402716159820601</v>
       </c>
-      <c r="O35" s="11">
+      <c r="O35" s="6">
         <v>1.97801613807678</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P35" s="6">
         <v>1.98647737503052</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="Q35" s="6">
         <v>1.9922184944152801</v>
       </c>
-      <c r="R35" s="11">
+      <c r="R35" s="6">
         <v>2.0238685607910201</v>
       </c>
-      <c r="S35" s="11">
+      <c r="S35" s="6">
         <v>2.05541944503784</v>
       </c>
-      <c r="T35" s="11">
+      <c r="T35" s="6">
         <v>2.0658776760101301</v>
       </c>
-      <c r="U35" s="11">
+      <c r="U35" s="6">
         <v>2.0856339931488002</v>
       </c>
-      <c r="V35" s="11">
+      <c r="V35" s="6">
         <v>2.0885157585143999</v>
       </c>
-      <c r="W35" s="11">
+      <c r="W35" s="6">
         <v>2.10216617584229</v>
       </c>
-      <c r="X35" s="11">
+      <c r="X35" s="6">
         <v>2.11807084083557</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="12" customFormat="1">
-      <c r="A36" s="10">
+    <row r="36" spans="1:24" s="10" customFormat="1">
+      <c r="A36" s="1">
         <v>1.5</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="1">
         <v>50</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="1">
         <v>20</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="6">
         <v>0</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="6">
         <v>1.66996574401855</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="6">
         <v>1.68232202529907</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="6">
         <v>1.7125780582428001</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="6">
         <v>1.88123607635498</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="6">
         <v>1.8951930999755899</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="6">
         <v>1.9195024967193599</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="6">
         <v>1.9249067306518599</v>
       </c>
-      <c r="M36" s="11">
+      <c r="M36" s="6">
         <v>1.9331698417663601</v>
       </c>
-      <c r="N36" s="11">
+      <c r="N36" s="6">
         <v>1.93777227401733</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O36" s="6">
         <v>1.95514392852783</v>
       </c>
-      <c r="P36" s="11">
+      <c r="P36" s="6">
         <v>1.95572066307068</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="Q36" s="6">
         <v>1.9660491943359399</v>
       </c>
-      <c r="R36" s="11">
+      <c r="R36" s="6">
         <v>1.9667563438415501</v>
       </c>
-      <c r="S36" s="11">
+      <c r="S36" s="6">
         <v>1.99000191688538</v>
       </c>
-      <c r="T36" s="11">
+      <c r="T36" s="6">
         <v>2.00039911270142</v>
       </c>
-      <c r="U36" s="11">
+      <c r="U36" s="6">
         <v>2.0031256675720202</v>
       </c>
-      <c r="V36" s="11">
+      <c r="V36" s="6">
         <v>2.0439436435699498</v>
       </c>
-      <c r="W36" s="11">
+      <c r="W36" s="6">
         <v>2.0613319873809801</v>
       </c>
-      <c r="X36" s="11">
+      <c r="X36" s="6">
         <v>2.0807640552520801</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="12" customFormat="1">
-      <c r="A37" s="10">
+    <row r="37" spans="1:24" s="10" customFormat="1">
+      <c r="A37" s="1">
         <v>1.5</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="1">
         <v>50</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="1">
         <v>20</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="6">
         <v>0</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="6">
         <v>1.50230383872986</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="6">
         <v>1.6379177570343</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="6">
         <v>1.6633164882659901</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="6">
         <v>1.67342901229858</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="6">
         <v>1.7549407482147199</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="6">
         <v>1.8231825828552199</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="6">
         <v>1.82930588722229</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="6">
         <v>1.83072710037231</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N37" s="6">
         <v>1.83893346786499</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O37" s="6">
         <v>1.8603987693786601</v>
       </c>
-      <c r="P37" s="11">
+      <c r="P37" s="6">
         <v>1.8774209022521999</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="Q37" s="6">
         <v>1.8954939842224101</v>
       </c>
-      <c r="R37" s="11">
+      <c r="R37" s="6">
         <v>1.9149799346923799</v>
       </c>
-      <c r="S37" s="11">
+      <c r="S37" s="6">
         <v>1.9426121711730999</v>
       </c>
-      <c r="T37" s="11">
+      <c r="T37" s="6">
         <v>1.95403552055359</v>
       </c>
-      <c r="U37" s="11">
+      <c r="U37" s="6">
         <v>1.96621513366699</v>
       </c>
-      <c r="V37" s="11">
+      <c r="V37" s="6">
         <v>1.96786189079285</v>
       </c>
-      <c r="W37" s="11">
+      <c r="W37" s="6">
         <v>1.9702241420745901</v>
       </c>
-      <c r="X37" s="11">
+      <c r="X37" s="6">
         <v>1.99698066711426</v>
       </c>
     </row>
@@ -8360,373 +8327,373 @@
         <v>2.6793390342167456</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="12" customFormat="1">
-      <c r="A47" s="10">
+    <row r="47" spans="1:24" s="10" customFormat="1">
+      <c r="A47" s="1">
         <v>2.5</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="1">
         <v>50</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="1">
         <v>20</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="6">
         <v>0</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="6">
         <v>2.4678871631622301</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="6">
         <v>2.47682452201843</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="6">
         <v>2.6004877090454102</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="6">
         <v>2.6120049953460698</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="6">
         <v>2.6608304977417001</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="6">
         <v>2.7571794986724898</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="6">
         <v>2.8162136077880899</v>
       </c>
-      <c r="M47" s="11">
+      <c r="M47" s="6">
         <v>2.8360612392425502</v>
       </c>
-      <c r="N47" s="11">
+      <c r="N47" s="6">
         <v>2.8420658111572301</v>
       </c>
-      <c r="O47" s="11">
+      <c r="O47" s="6">
         <v>2.93878197669983</v>
       </c>
-      <c r="P47" s="11">
+      <c r="P47" s="6">
         <v>2.93891549110413</v>
       </c>
-      <c r="Q47" s="11">
+      <c r="Q47" s="6">
         <v>2.9693355560302699</v>
       </c>
-      <c r="R47" s="11">
+      <c r="R47" s="6">
         <v>2.9936821460723899</v>
       </c>
-      <c r="S47" s="11">
+      <c r="S47" s="6">
         <v>3.0655434131622301</v>
       </c>
-      <c r="T47" s="11">
+      <c r="T47" s="6">
         <v>3.1454982757568399</v>
       </c>
-      <c r="U47" s="11">
+      <c r="U47" s="6">
         <v>3.1791932582855198</v>
       </c>
-      <c r="V47" s="11">
+      <c r="V47" s="6">
         <v>3.1912746429443399</v>
       </c>
-      <c r="W47" s="11">
+      <c r="W47" s="6">
         <v>3.1925060749053999</v>
       </c>
-      <c r="X47" s="11">
+      <c r="X47" s="6">
         <v>3.2312214374542201</v>
       </c>
     </row>
-    <row r="48" spans="1:24" s="12" customFormat="1">
-      <c r="A48" s="10">
+    <row r="48" spans="1:24" s="10" customFormat="1">
+      <c r="A48" s="1">
         <v>2.5</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="1">
         <v>50</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="1">
         <v>20</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="6">
         <v>0</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="6">
         <v>2.75204730033875</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="6">
         <v>2.8256061077117902</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="6">
         <v>2.8603601455688499</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="6">
         <v>2.9071795940399201</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="6">
         <v>2.9337289333343501</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="6">
         <v>2.9365746974945099</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="6">
         <v>2.9892549514770499</v>
       </c>
-      <c r="M48" s="11">
+      <c r="M48" s="6">
         <v>2.9933493137359601</v>
       </c>
-      <c r="N48" s="11">
+      <c r="N48" s="6">
         <v>3.0012772083282502</v>
       </c>
-      <c r="O48" s="11">
+      <c r="O48" s="6">
         <v>3.1006064414978001</v>
       </c>
-      <c r="P48" s="11">
+      <c r="P48" s="6">
         <v>3.14390301704407</v>
       </c>
-      <c r="Q48" s="11">
+      <c r="Q48" s="6">
         <v>3.2069473266601598</v>
       </c>
-      <c r="R48" s="11">
+      <c r="R48" s="6">
         <v>3.2198727130889901</v>
       </c>
-      <c r="S48" s="11">
+      <c r="S48" s="6">
         <v>3.24013376235962</v>
       </c>
-      <c r="T48" s="11">
+      <c r="T48" s="6">
         <v>3.2493925094604501</v>
       </c>
-      <c r="U48" s="11">
+      <c r="U48" s="6">
         <v>3.2524392604827899</v>
       </c>
-      <c r="V48" s="11">
+      <c r="V48" s="6">
         <v>3.2563843727111799</v>
       </c>
-      <c r="W48" s="11">
+      <c r="W48" s="6">
         <v>3.2936236858367902</v>
       </c>
-      <c r="X48" s="11">
+      <c r="X48" s="6">
         <v>3.35635638237</v>
       </c>
     </row>
-    <row r="49" spans="1:24" s="12" customFormat="1">
-      <c r="A49" s="10">
+    <row r="49" spans="1:24" s="10" customFormat="1">
+      <c r="A49" s="1">
         <v>2.5</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="1">
         <v>50</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="1">
         <v>20</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="6">
         <v>0</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="6">
         <v>2.5505273342132599</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="6">
         <v>2.5631625652313201</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="6">
         <v>2.6973862648010298</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="6">
         <v>2.7862110137939502</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="6">
         <v>2.9068131446838401</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K49" s="6">
         <v>2.9072818756103498</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L49" s="6">
         <v>2.92779541015625</v>
       </c>
-      <c r="M49" s="11">
+      <c r="M49" s="6">
         <v>2.9330172538757302</v>
       </c>
-      <c r="N49" s="11">
+      <c r="N49" s="6">
         <v>2.9477398395538299</v>
       </c>
-      <c r="O49" s="11">
+      <c r="O49" s="6">
         <v>2.96649193763733</v>
       </c>
-      <c r="P49" s="11">
+      <c r="P49" s="6">
         <v>2.97791576385498</v>
       </c>
-      <c r="Q49" s="11">
+      <c r="Q49" s="6">
         <v>3.03098845481873</v>
       </c>
-      <c r="R49" s="11">
+      <c r="R49" s="6">
         <v>3.0343072414398198</v>
       </c>
-      <c r="S49" s="11">
+      <c r="S49" s="6">
         <v>3.1096675395965598</v>
       </c>
-      <c r="T49" s="11">
+      <c r="T49" s="6">
         <v>3.1267960071563698</v>
       </c>
-      <c r="U49" s="11">
+      <c r="U49" s="6">
         <v>3.1757962703704798</v>
       </c>
-      <c r="V49" s="11">
+      <c r="V49" s="6">
         <v>3.1878433227539098</v>
       </c>
-      <c r="W49" s="11">
+      <c r="W49" s="6">
         <v>3.2083318233489999</v>
       </c>
-      <c r="X49" s="11">
+      <c r="X49" s="6">
         <v>3.2482206821441602</v>
       </c>
     </row>
-    <row r="50" spans="1:24" s="12" customFormat="1">
-      <c r="A50" s="10">
+    <row r="50" spans="1:24" s="10" customFormat="1">
+      <c r="A50" s="1">
         <v>2.5</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="1">
         <v>50</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="1">
         <v>20</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="6">
         <v>0</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="6">
         <v>2.7985248565673801</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="6">
         <v>2.8086636066436799</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="6">
         <v>2.8446602821350102</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="6">
         <v>2.87713718414307</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="6">
         <v>2.9014618396759002</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50" s="6">
         <v>2.9089872837066699</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L50" s="6">
         <v>2.9362530708313002</v>
       </c>
-      <c r="M50" s="11">
+      <c r="M50" s="6">
         <v>2.9456770420074498</v>
       </c>
-      <c r="N50" s="11">
+      <c r="N50" s="6">
         <v>3.01582932472229</v>
       </c>
-      <c r="O50" s="11">
+      <c r="O50" s="6">
         <v>3.0212919712066602</v>
       </c>
-      <c r="P50" s="11">
+      <c r="P50" s="6">
         <v>3.0435249805450399</v>
       </c>
-      <c r="Q50" s="11">
+      <c r="Q50" s="6">
         <v>3.0537045001983598</v>
       </c>
-      <c r="R50" s="11">
+      <c r="R50" s="6">
         <v>3.0788698196411102</v>
       </c>
-      <c r="S50" s="11">
+      <c r="S50" s="6">
         <v>3.0913231372833301</v>
       </c>
-      <c r="T50" s="11">
+      <c r="T50" s="6">
         <v>3.0949506759643599</v>
       </c>
-      <c r="U50" s="11">
+      <c r="U50" s="6">
         <v>3.1020336151122998</v>
       </c>
-      <c r="V50" s="11">
+      <c r="V50" s="6">
         <v>3.1273038387298602</v>
       </c>
-      <c r="W50" s="11">
+      <c r="W50" s="6">
         <v>3.1591751575470002</v>
       </c>
-      <c r="X50" s="11">
+      <c r="X50" s="6">
         <v>3.16235446929932</v>
       </c>
     </row>
-    <row r="51" spans="1:24" s="12" customFormat="1">
-      <c r="A51" s="10">
+    <row r="51" spans="1:24" s="10" customFormat="1">
+      <c r="A51" s="1">
         <v>2.5</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="1">
         <v>50</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="1">
         <v>20</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="6">
         <v>0</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="6">
         <v>2.5166707038879399</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="6">
         <v>2.6356678009033199</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="6">
         <v>2.7310159206390399</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="6">
         <v>2.7990949153900102</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J51" s="6">
         <v>2.8292121887207</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K51" s="6">
         <v>2.8649852275848402</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L51" s="6">
         <v>2.8820178508758501</v>
       </c>
-      <c r="M51" s="11">
+      <c r="M51" s="6">
         <v>2.9390993118286102</v>
       </c>
-      <c r="N51" s="11">
+      <c r="N51" s="6">
         <v>2.9490175247192401</v>
       </c>
-      <c r="O51" s="11">
+      <c r="O51" s="6">
         <v>2.9714150428771999</v>
       </c>
-      <c r="P51" s="11">
+      <c r="P51" s="6">
         <v>2.9981663227081299</v>
       </c>
-      <c r="Q51" s="11">
+      <c r="Q51" s="6">
         <v>3.02120089530945</v>
       </c>
-      <c r="R51" s="11">
+      <c r="R51" s="6">
         <v>3.0556073188781698</v>
       </c>
-      <c r="S51" s="11">
+      <c r="S51" s="6">
         <v>3.1174356937408398</v>
       </c>
-      <c r="T51" s="11">
+      <c r="T51" s="6">
         <v>3.1225450038909899</v>
       </c>
-      <c r="U51" s="11">
+      <c r="U51" s="6">
         <v>3.20595359802246</v>
       </c>
-      <c r="V51" s="11">
+      <c r="V51" s="6">
         <v>3.2230141162872301</v>
       </c>
-      <c r="W51" s="11">
+      <c r="W51" s="6">
         <v>3.2393772602081299</v>
       </c>
-      <c r="X51" s="11">
+      <c r="X51" s="6">
         <v>3.2670948505401598</v>
       </c>
     </row>
@@ -8824,57 +8791,57 @@
         <v>3.2530495643615724</v>
       </c>
     </row>
-    <row r="53" spans="1:24" s="12" customFormat="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-    </row>
-    <row r="54" spans="1:24" s="12" customFormat="1">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
+    <row r="53" spans="1:24" s="10" customFormat="1">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+    </row>
+    <row r="54" spans="1:24" s="10" customFormat="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
     </row>
     <row r="56" spans="1:24" s="5" customFormat="1">
       <c r="A56" s="5">
@@ -10712,299 +10679,299 @@
         <v>1.24127697944641</v>
       </c>
     </row>
-    <row r="88" spans="1:24" s="17" customFormat="1">
-      <c r="A88" s="17">
+    <row r="88" spans="1:24" s="14" customFormat="1">
+      <c r="A88" s="14">
         <v>1</v>
       </c>
-      <c r="B88" s="17">
+      <c r="B88" s="14">
         <v>1</v>
       </c>
-      <c r="C88" s="17">
+      <c r="C88" s="14">
         <v>20</v>
       </c>
-      <c r="D88" s="17" t="s">
+      <c r="D88" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E88" s="14">
         <v>0</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F88" s="14">
         <v>1.07200360298157</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G88" s="14">
         <v>1.10529232025146</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H88" s="14">
         <v>1.1573913097381601</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I88" s="14">
         <v>1.16456842422485</v>
       </c>
-      <c r="J88" s="17">
+      <c r="J88" s="14">
         <v>1.1687269210815401</v>
       </c>
-      <c r="K88" s="17">
+      <c r="K88" s="14">
         <v>1.17324447631836</v>
       </c>
-      <c r="L88" s="17">
+      <c r="L88" s="14">
         <v>1.17952108383179</v>
       </c>
-      <c r="M88" s="17">
+      <c r="M88" s="14">
         <v>1.18643474578857</v>
       </c>
-      <c r="N88" s="17">
+      <c r="N88" s="14">
         <v>1.1911768913269001</v>
       </c>
-      <c r="O88" s="17">
+      <c r="O88" s="14">
         <v>1.22200798988342</v>
       </c>
-      <c r="P88" s="17">
+      <c r="P88" s="14">
         <v>1.2327976226806601</v>
       </c>
-      <c r="Q88" s="17">
+      <c r="Q88" s="14">
         <v>1.23754239082336</v>
       </c>
-      <c r="R88" s="17">
+      <c r="R88" s="14">
         <v>1.2400872707366899</v>
       </c>
-      <c r="S88" s="17">
+      <c r="S88" s="14">
         <v>1.2467129230499301</v>
       </c>
-      <c r="T88" s="17">
+      <c r="T88" s="14">
         <v>1.2468786239623999</v>
       </c>
-      <c r="U88" s="17">
+      <c r="U88" s="14">
         <v>1.25902152061462</v>
       </c>
-      <c r="V88" s="17">
+      <c r="V88" s="14">
         <v>1.2637512683868399</v>
       </c>
-      <c r="W88" s="17">
+      <c r="W88" s="14">
         <v>1.26995801925659</v>
       </c>
-      <c r="X88" s="17">
+      <c r="X88" s="14">
         <v>1.3040149211883501</v>
       </c>
     </row>
-    <row r="89" spans="1:24" s="17" customFormat="1">
-      <c r="A89" s="17">
+    <row r="89" spans="1:24" s="14" customFormat="1">
+      <c r="A89" s="14">
         <v>1</v>
       </c>
-      <c r="B89" s="17">
+      <c r="B89" s="14">
         <v>1</v>
       </c>
-      <c r="C89" s="17">
+      <c r="C89" s="14">
         <v>20</v>
       </c>
-      <c r="D89" s="17" t="s">
+      <c r="D89" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E89" s="14">
         <v>0</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F89" s="14">
         <v>1.0965554714202901</v>
       </c>
-      <c r="G89" s="17">
+      <c r="G89" s="14">
         <v>1.1247420310974101</v>
       </c>
-      <c r="H89" s="17">
+      <c r="H89" s="14">
         <v>1.1402130126953101</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I89" s="14">
         <v>1.14072608947754</v>
       </c>
-      <c r="J89" s="17">
+      <c r="J89" s="14">
         <v>1.1486556529998799</v>
       </c>
-      <c r="K89" s="17">
+      <c r="K89" s="14">
         <v>1.1700286865234399</v>
       </c>
-      <c r="L89" s="17">
+      <c r="L89" s="14">
         <v>1.1758275032043499</v>
       </c>
-      <c r="M89" s="17">
+      <c r="M89" s="14">
         <v>1.1783428192138701</v>
       </c>
-      <c r="N89" s="17">
+      <c r="N89" s="14">
         <v>1.1891670227050799</v>
       </c>
-      <c r="O89" s="17">
+      <c r="O89" s="14">
         <v>1.1900815963745099</v>
       </c>
-      <c r="P89" s="17">
+      <c r="P89" s="14">
         <v>1.19993448257446</v>
       </c>
-      <c r="Q89" s="17">
+      <c r="Q89" s="14">
         <v>1.20197772979736</v>
       </c>
-      <c r="R89" s="17">
+      <c r="R89" s="14">
         <v>1.20663094520569</v>
       </c>
-      <c r="S89" s="17">
+      <c r="S89" s="14">
         <v>1.2423722743987999</v>
       </c>
-      <c r="T89" s="17">
+      <c r="T89" s="14">
         <v>1.2502398490905799</v>
       </c>
-      <c r="U89" s="17">
+      <c r="U89" s="14">
         <v>1.2600412368774401</v>
       </c>
-      <c r="V89" s="17">
+      <c r="V89" s="14">
         <v>1.2656660079956099</v>
       </c>
-      <c r="W89" s="17">
+      <c r="W89" s="14">
         <v>1.2745378017425499</v>
       </c>
-      <c r="X89" s="17">
+      <c r="X89" s="14">
         <v>1.35480356216431</v>
       </c>
     </row>
-    <row r="90" spans="1:24" s="17" customFormat="1">
-      <c r="A90" s="17">
+    <row r="90" spans="1:24" s="14" customFormat="1">
+      <c r="A90" s="14">
         <v>1</v>
       </c>
-      <c r="B90" s="17">
+      <c r="B90" s="14">
         <v>1</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="14">
         <v>20</v>
       </c>
-      <c r="D90" s="17" t="s">
+      <c r="D90" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90" s="14">
         <v>0</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F90" s="14">
         <v>0.92296910285949696</v>
       </c>
-      <c r="G90" s="17">
+      <c r="G90" s="14">
         <v>1.06023025512695</v>
       </c>
-      <c r="H90" s="17">
+      <c r="H90" s="14">
         <v>1.08963966369629</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I90" s="14">
         <v>1.10108041763306</v>
       </c>
-      <c r="J90" s="17">
+      <c r="J90" s="14">
         <v>1.1259727478027299</v>
       </c>
-      <c r="K90" s="17">
+      <c r="K90" s="14">
         <v>1.15544104576111</v>
       </c>
-      <c r="L90" s="17">
+      <c r="L90" s="14">
         <v>1.16247606277466</v>
       </c>
-      <c r="M90" s="17">
+      <c r="M90" s="14">
         <v>1.16991710662842</v>
       </c>
-      <c r="N90" s="17">
+      <c r="N90" s="14">
         <v>1.17360067367554</v>
       </c>
-      <c r="O90" s="17">
+      <c r="O90" s="14">
         <v>1.1860828399658201</v>
       </c>
-      <c r="P90" s="17">
+      <c r="P90" s="14">
         <v>1.18645715713501</v>
       </c>
-      <c r="Q90" s="17">
+      <c r="Q90" s="14">
         <v>1.19228172302246</v>
       </c>
-      <c r="R90" s="17">
+      <c r="R90" s="14">
         <v>1.1929671764373799</v>
       </c>
-      <c r="S90" s="17">
+      <c r="S90" s="14">
         <v>1.2013213634491</v>
       </c>
-      <c r="T90" s="17">
+      <c r="T90" s="14">
         <v>1.2022109031677199</v>
       </c>
-      <c r="U90" s="17">
+      <c r="U90" s="14">
         <v>1.2023627758026101</v>
       </c>
-      <c r="V90" s="17">
+      <c r="V90" s="14">
         <v>1.2027161121368399</v>
       </c>
-      <c r="W90" s="17">
+      <c r="W90" s="14">
         <v>1.21971106529236</v>
       </c>
-      <c r="X90" s="17">
+      <c r="X90" s="14">
         <v>1.2947142124176001</v>
       </c>
     </row>
-    <row r="91" spans="1:24" s="17" customFormat="1">
-      <c r="A91" s="17">
+    <row r="91" spans="1:24" s="14" customFormat="1">
+      <c r="A91" s="14">
         <v>1</v>
       </c>
-      <c r="B91" s="17">
+      <c r="B91" s="14">
         <v>1</v>
       </c>
-      <c r="C91" s="17">
+      <c r="C91" s="14">
         <v>20</v>
       </c>
-      <c r="D91" s="17" t="s">
+      <c r="D91" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E91" s="14">
         <v>0</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F91" s="14">
         <v>1.0998129844665501</v>
       </c>
-      <c r="G91" s="17">
+      <c r="G91" s="14">
         <v>1.10515809059143</v>
       </c>
-      <c r="H91" s="17">
+      <c r="H91" s="14">
         <v>1.1075849533081099</v>
       </c>
-      <c r="I91" s="17">
+      <c r="I91" s="14">
         <v>1.1127128601074201</v>
       </c>
-      <c r="J91" s="17">
+      <c r="J91" s="14">
         <v>1.15269994735718</v>
       </c>
-      <c r="K91" s="17">
+      <c r="K91" s="14">
         <v>1.1614990234375</v>
       </c>
-      <c r="L91" s="17">
+      <c r="L91" s="14">
         <v>1.1701755523681601</v>
       </c>
-      <c r="M91" s="17">
+      <c r="M91" s="14">
         <v>1.1753401756286601</v>
       </c>
-      <c r="N91" s="17">
+      <c r="N91" s="14">
         <v>1.1891734600067101</v>
       </c>
-      <c r="O91" s="17">
+      <c r="O91" s="14">
         <v>1.19786024093628</v>
       </c>
-      <c r="P91" s="17">
+      <c r="P91" s="14">
         <v>1.21424531936646</v>
       </c>
-      <c r="Q91" s="17">
+      <c r="Q91" s="14">
         <v>1.22749352455139</v>
       </c>
-      <c r="R91" s="17">
+      <c r="R91" s="14">
         <v>1.2341525554657</v>
       </c>
-      <c r="S91" s="17">
+      <c r="S91" s="14">
         <v>1.2353141307830799</v>
       </c>
-      <c r="T91" s="17">
+      <c r="T91" s="14">
         <v>1.23930644989014</v>
       </c>
-      <c r="U91" s="17">
+      <c r="U91" s="14">
         <v>1.2472114562988299</v>
       </c>
-      <c r="V91" s="17">
+      <c r="V91" s="14">
         <v>1.25318431854248</v>
       </c>
-      <c r="W91" s="17">
+      <c r="W91" s="14">
         <v>1.2542803287506099</v>
       </c>
-      <c r="X91" s="17">
+      <c r="X91" s="14">
         <v>1.2819411754608201</v>
       </c>
     </row>
@@ -11472,225 +11439,225 @@
         <v>1.3269288539886499</v>
       </c>
     </row>
-    <row r="98" spans="1:24" s="17" customFormat="1">
-      <c r="A98" s="17">
+    <row r="98" spans="1:24" s="14" customFormat="1">
+      <c r="A98" s="14">
         <v>1</v>
       </c>
-      <c r="B98" s="17">
+      <c r="B98" s="14">
         <v>25</v>
       </c>
-      <c r="C98" s="17">
+      <c r="C98" s="14">
         <v>20</v>
       </c>
-      <c r="D98" s="17" t="s">
+      <c r="D98" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E98" s="17">
+      <c r="E98" s="14">
         <v>0</v>
       </c>
-      <c r="F98" s="17">
+      <c r="F98" s="14">
         <v>1.0488300323486299</v>
       </c>
-      <c r="G98" s="17">
+      <c r="G98" s="14">
         <v>1.1286633014678999</v>
       </c>
-      <c r="H98" s="17">
+      <c r="H98" s="14">
         <v>1.1555421352386499</v>
       </c>
-      <c r="I98" s="17">
+      <c r="I98" s="14">
         <v>1.1799843311309799</v>
       </c>
-      <c r="J98" s="17">
+      <c r="J98" s="14">
         <v>1.19013595581055</v>
       </c>
-      <c r="K98" s="17">
+      <c r="K98" s="14">
         <v>1.2168111801147501</v>
       </c>
-      <c r="L98" s="17">
+      <c r="L98" s="14">
         <v>1.2203238010406501</v>
       </c>
-      <c r="M98" s="17">
+      <c r="M98" s="14">
         <v>1.24025130271912</v>
       </c>
-      <c r="N98" s="17">
+      <c r="N98" s="14">
         <v>1.24442315101624</v>
       </c>
-      <c r="O98" s="17">
+      <c r="O98" s="14">
         <v>1.2599740028381301</v>
       </c>
-      <c r="P98" s="17">
+      <c r="P98" s="14">
         <v>1.2707149982452399</v>
       </c>
-      <c r="Q98" s="17">
+      <c r="Q98" s="14">
         <v>1.2759964466095</v>
       </c>
-      <c r="R98" s="17">
+      <c r="R98" s="14">
         <v>1.2889387607574501</v>
       </c>
-      <c r="S98" s="17">
+      <c r="S98" s="14">
         <v>1.3125748634338399</v>
       </c>
-      <c r="T98" s="17">
+      <c r="T98" s="14">
         <v>1.3131103515625</v>
       </c>
-      <c r="U98" s="17">
+      <c r="U98" s="14">
         <v>1.32803010940552</v>
       </c>
-      <c r="V98" s="17">
+      <c r="V98" s="14">
         <v>1.3334753513336199</v>
       </c>
-      <c r="W98" s="17">
+      <c r="W98" s="14">
         <v>1.3382887840271001</v>
       </c>
-      <c r="X98" s="17">
+      <c r="X98" s="14">
         <v>1.3639557361602801</v>
       </c>
     </row>
-    <row r="99" spans="1:24" s="17" customFormat="1">
-      <c r="A99" s="17">
+    <row r="99" spans="1:24" s="14" customFormat="1">
+      <c r="A99" s="14">
         <v>1</v>
       </c>
-      <c r="B99" s="17">
+      <c r="B99" s="14">
         <v>25</v>
       </c>
-      <c r="C99" s="17">
+      <c r="C99" s="14">
         <v>20</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="D99" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E99" s="17">
+      <c r="E99" s="14">
         <v>0</v>
       </c>
-      <c r="F99" s="17">
+      <c r="F99" s="14">
         <v>1.06511378288269</v>
       </c>
-      <c r="G99" s="17">
+      <c r="G99" s="14">
         <v>1.06976413726807</v>
       </c>
-      <c r="H99" s="17">
+      <c r="H99" s="14">
         <v>1.0896518230438199</v>
       </c>
-      <c r="I99" s="17">
+      <c r="I99" s="14">
         <v>1.1265184879303001</v>
       </c>
-      <c r="J99" s="17">
+      <c r="J99" s="14">
         <v>1.15597701072693</v>
       </c>
-      <c r="K99" s="17">
+      <c r="K99" s="14">
         <v>1.16245937347412</v>
       </c>
-      <c r="L99" s="17">
+      <c r="L99" s="14">
         <v>1.19202160835266</v>
       </c>
-      <c r="M99" s="17">
+      <c r="M99" s="14">
         <v>1.1946985721588099</v>
       </c>
-      <c r="N99" s="17">
+      <c r="N99" s="14">
         <v>1.19719409942627</v>
       </c>
-      <c r="O99" s="17">
+      <c r="O99" s="14">
         <v>1.2165343761444101</v>
       </c>
-      <c r="P99" s="17">
+      <c r="P99" s="14">
         <v>1.2232763767242401</v>
       </c>
-      <c r="Q99" s="17">
+      <c r="Q99" s="14">
         <v>1.22808766365051</v>
       </c>
-      <c r="R99" s="17">
+      <c r="R99" s="14">
         <v>1.2338175773620601</v>
       </c>
-      <c r="S99" s="17">
+      <c r="S99" s="14">
         <v>1.2465288639068599</v>
       </c>
-      <c r="T99" s="17">
+      <c r="T99" s="14">
         <v>1.2600908279418901</v>
       </c>
-      <c r="U99" s="17">
+      <c r="U99" s="14">
         <v>1.2819390296936</v>
       </c>
-      <c r="V99" s="17">
+      <c r="V99" s="14">
         <v>1.2927119731903101</v>
       </c>
-      <c r="W99" s="17">
+      <c r="W99" s="14">
         <v>1.2953414916992201</v>
       </c>
-      <c r="X99" s="17">
+      <c r="X99" s="14">
         <v>1.2965452671051001</v>
       </c>
     </row>
-    <row r="100" spans="1:24" s="17" customFormat="1">
-      <c r="A100" s="17">
+    <row r="100" spans="1:24" s="14" customFormat="1">
+      <c r="A100" s="14">
         <v>1</v>
       </c>
-      <c r="B100" s="17">
+      <c r="B100" s="14">
         <v>25</v>
       </c>
-      <c r="C100" s="17">
+      <c r="C100" s="14">
         <v>20</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D100" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="17">
+      <c r="E100" s="14">
         <v>0</v>
       </c>
-      <c r="F100" s="17">
+      <c r="F100" s="14">
         <v>1.0264253616332999</v>
       </c>
-      <c r="G100" s="17">
+      <c r="G100" s="14">
         <v>1.0501027107238801</v>
       </c>
-      <c r="H100" s="17">
+      <c r="H100" s="14">
         <v>1.06947588920593</v>
       </c>
-      <c r="I100" s="17">
+      <c r="I100" s="14">
         <v>1.09831738471985</v>
       </c>
-      <c r="J100" s="17">
+      <c r="J100" s="14">
         <v>1.1660847663879399</v>
       </c>
-      <c r="K100" s="17">
+      <c r="K100" s="14">
         <v>1.1937401294708301</v>
       </c>
-      <c r="L100" s="17">
+      <c r="L100" s="14">
         <v>1.1971347332000699</v>
       </c>
-      <c r="M100" s="17">
+      <c r="M100" s="14">
         <v>1.22779893875122</v>
       </c>
-      <c r="N100" s="17">
+      <c r="N100" s="14">
         <v>1.2368676662445099</v>
       </c>
-      <c r="O100" s="17">
+      <c r="O100" s="14">
         <v>1.2401704788207999</v>
       </c>
-      <c r="P100" s="17">
+      <c r="P100" s="14">
         <v>1.2448801994323699</v>
       </c>
-      <c r="Q100" s="17">
+      <c r="Q100" s="14">
         <v>1.26206278800964</v>
       </c>
-      <c r="R100" s="17">
+      <c r="R100" s="14">
         <v>1.2630248069763199</v>
       </c>
-      <c r="S100" s="17">
+      <c r="S100" s="14">
         <v>1.2658324241638199</v>
       </c>
-      <c r="T100" s="17">
+      <c r="T100" s="14">
         <v>1.26643943786621</v>
       </c>
-      <c r="U100" s="17">
+      <c r="U100" s="14">
         <v>1.27260541915894</v>
       </c>
-      <c r="V100" s="17">
+      <c r="V100" s="14">
         <v>1.2937765121460001</v>
       </c>
-      <c r="W100" s="17">
+      <c r="W100" s="14">
         <v>1.2971222400665301</v>
       </c>
-      <c r="X100" s="17">
+      <c r="X100" s="14">
         <v>1.44821548461914</v>
       </c>
     </row>
@@ -12252,181 +12219,181 @@
         <v>1.503542852401734</v>
       </c>
     </row>
-    <row r="108" spans="1:24" s="16" customFormat="1">
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="11"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="11"/>
-      <c r="L108" s="11"/>
-      <c r="M108" s="11"/>
-      <c r="N108" s="11"/>
-      <c r="O108" s="11"/>
-      <c r="P108" s="11"/>
-      <c r="Q108" s="11"/>
-      <c r="R108" s="11"/>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11"/>
-      <c r="U108" s="11"/>
-      <c r="V108" s="11"/>
-      <c r="W108" s="11"/>
-      <c r="X108" s="11"/>
-    </row>
-    <row r="109" spans="1:24" s="16" customFormat="1">
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="11"/>
-      <c r="L109" s="11"/>
-      <c r="M109" s="11"/>
-      <c r="N109" s="11"/>
-      <c r="O109" s="11"/>
-      <c r="P109" s="11"/>
-      <c r="Q109" s="11"/>
-      <c r="R109" s="11"/>
-      <c r="S109" s="11"/>
-      <c r="T109" s="11"/>
-      <c r="U109" s="11"/>
-      <c r="V109" s="11"/>
-      <c r="W109" s="11"/>
-      <c r="X109" s="11"/>
-    </row>
-    <row r="110" spans="1:24" s="16" customFormat="1">
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="11"/>
-      <c r="L110" s="11"/>
-      <c r="M110" s="11"/>
-      <c r="N110" s="11"/>
-      <c r="O110" s="11"/>
-      <c r="P110" s="11"/>
-      <c r="Q110" s="11"/>
-      <c r="R110" s="11"/>
-      <c r="S110" s="11"/>
-      <c r="T110" s="11"/>
-      <c r="U110" s="11"/>
-      <c r="V110" s="11"/>
-      <c r="W110" s="11"/>
-      <c r="X110" s="11"/>
-    </row>
-    <row r="111" spans="1:24" s="16" customFormat="1">
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="11"/>
-      <c r="N111" s="11"/>
-      <c r="O111" s="11"/>
-      <c r="P111" s="11"/>
-      <c r="Q111" s="11"/>
-      <c r="R111" s="11"/>
-      <c r="S111" s="11"/>
-      <c r="T111" s="11"/>
-      <c r="U111" s="11"/>
-      <c r="V111" s="11"/>
-      <c r="W111" s="11"/>
-      <c r="X111" s="11"/>
-    </row>
-    <row r="112" spans="1:24" s="16" customFormat="1">
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="11"/>
-      <c r="L112" s="11"/>
-      <c r="M112" s="11"/>
-      <c r="N112" s="11"/>
-      <c r="O112" s="11"/>
-      <c r="P112" s="11"/>
-      <c r="Q112" s="11"/>
-      <c r="R112" s="11"/>
-      <c r="S112" s="11"/>
-      <c r="T112" s="11"/>
-      <c r="U112" s="11"/>
-      <c r="V112" s="11"/>
-      <c r="W112" s="11"/>
-      <c r="X112" s="11"/>
-    </row>
-    <row r="113" spans="1:24" s="16" customFormat="1">
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="11"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="11"/>
-      <c r="L113" s="11"/>
-      <c r="M113" s="11"/>
-      <c r="N113" s="11"/>
-      <c r="O113" s="11"/>
-      <c r="P113" s="11"/>
-      <c r="Q113" s="11"/>
-      <c r="R113" s="11"/>
-      <c r="S113" s="11"/>
-      <c r="T113" s="11"/>
-      <c r="U113" s="11"/>
-      <c r="V113" s="11"/>
-      <c r="W113" s="11"/>
-      <c r="X113" s="11"/>
-    </row>
-    <row r="114" spans="1:24" s="16" customFormat="1">
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="11"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="11"/>
-      <c r="L114" s="11"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="11"/>
-      <c r="O114" s="11"/>
-      <c r="P114" s="11"/>
-      <c r="Q114" s="11"/>
-      <c r="R114" s="11"/>
-      <c r="S114" s="11"/>
-      <c r="T114" s="11"/>
-      <c r="U114" s="11"/>
-      <c r="V114" s="11"/>
-      <c r="W114" s="11"/>
-      <c r="X114" s="11"/>
-    </row>
-    <row r="115" spans="1:24" s="16" customFormat="1">
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="11"/>
-      <c r="O115" s="11"/>
-      <c r="P115" s="11"/>
-      <c r="Q115" s="11"/>
-      <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
-      <c r="T115" s="11"/>
-      <c r="U115" s="11"/>
-      <c r="V115" s="11"/>
-      <c r="W115" s="11"/>
-      <c r="X115" s="11"/>
+    <row r="108" spans="1:24">
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+      <c r="T108" s="6"/>
+      <c r="U108" s="6"/>
+      <c r="V108" s="6"/>
+      <c r="W108" s="6"/>
+      <c r="X108" s="6"/>
+    </row>
+    <row r="109" spans="1:24">
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
+      <c r="U109" s="6"/>
+      <c r="V109" s="6"/>
+      <c r="W109" s="6"/>
+      <c r="X109" s="6"/>
+    </row>
+    <row r="110" spans="1:24">
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
+      <c r="U110" s="6"/>
+      <c r="V110" s="6"/>
+      <c r="W110" s="6"/>
+      <c r="X110" s="6"/>
+    </row>
+    <row r="111" spans="1:24">
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+      <c r="T111" s="6"/>
+      <c r="U111" s="6"/>
+      <c r="V111" s="6"/>
+      <c r="W111" s="6"/>
+      <c r="X111" s="6"/>
+    </row>
+    <row r="112" spans="1:24">
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+      <c r="T112" s="6"/>
+      <c r="U112" s="6"/>
+      <c r="V112" s="6"/>
+      <c r="W112" s="6"/>
+      <c r="X112" s="6"/>
+    </row>
+    <row r="113" spans="1:24">
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+      <c r="T113" s="6"/>
+      <c r="U113" s="6"/>
+      <c r="V113" s="6"/>
+      <c r="W113" s="6"/>
+      <c r="X113" s="6"/>
+    </row>
+    <row r="114" spans="1:24">
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+      <c r="T114" s="6"/>
+      <c r="U114" s="6"/>
+      <c r="V114" s="6"/>
+      <c r="W114" s="6"/>
+      <c r="X114" s="6"/>
+    </row>
+    <row r="115" spans="1:24">
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6"/>
+      <c r="U115" s="6"/>
+      <c r="V115" s="6"/>
+      <c r="W115" s="6"/>
+      <c r="X115" s="6"/>
     </row>
     <row r="116" spans="1:24">
       <c r="A116">
@@ -12798,299 +12765,299 @@
         <v>1.5222582817077599</v>
       </c>
     </row>
-    <row r="121" spans="1:24" s="17" customFormat="1">
-      <c r="A121" s="17">
+    <row r="121" spans="1:24" s="14" customFormat="1">
+      <c r="A121" s="14">
         <v>1</v>
       </c>
-      <c r="B121" s="17">
+      <c r="B121" s="14">
         <v>150</v>
       </c>
-      <c r="C121" s="17">
+      <c r="C121" s="14">
         <v>20</v>
       </c>
-      <c r="D121" s="17" t="s">
+      <c r="D121" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E121" s="17">
+      <c r="E121" s="14">
         <v>0</v>
       </c>
-      <c r="F121" s="17">
+      <c r="F121" s="14">
         <v>1.2879421710968</v>
       </c>
-      <c r="G121" s="17">
+      <c r="G121" s="14">
         <v>1.2986321449279801</v>
       </c>
-      <c r="H121" s="17">
+      <c r="H121" s="14">
         <v>1.323570728302</v>
       </c>
-      <c r="I121" s="17">
+      <c r="I121" s="14">
         <v>1.3455080986023</v>
       </c>
-      <c r="J121" s="17">
+      <c r="J121" s="14">
         <v>1.34764575958252</v>
       </c>
-      <c r="K121" s="17">
+      <c r="K121" s="14">
         <v>1.34935975074768</v>
       </c>
-      <c r="L121" s="17">
+      <c r="L121" s="14">
         <v>1.3494400978088399</v>
       </c>
-      <c r="M121" s="17">
+      <c r="M121" s="14">
         <v>1.3698368072509799</v>
       </c>
-      <c r="N121" s="17">
+      <c r="N121" s="14">
         <v>1.37560987472534</v>
       </c>
-      <c r="O121" s="17">
+      <c r="O121" s="14">
         <v>1.3799352645873999</v>
       </c>
-      <c r="P121" s="17">
+      <c r="P121" s="14">
         <v>1.3897106647491499</v>
       </c>
-      <c r="Q121" s="17">
+      <c r="Q121" s="14">
         <v>1.4035406112670901</v>
       </c>
-      <c r="R121" s="17">
+      <c r="R121" s="14">
         <v>1.4106011390686</v>
       </c>
-      <c r="S121" s="17">
+      <c r="S121" s="14">
         <v>1.41435623168945</v>
       </c>
-      <c r="T121" s="17">
+      <c r="T121" s="14">
         <v>1.41886281967163</v>
       </c>
-      <c r="U121" s="17">
+      <c r="U121" s="14">
         <v>1.42568612098694</v>
       </c>
-      <c r="V121" s="17">
+      <c r="V121" s="14">
         <v>1.4379694461822501</v>
       </c>
-      <c r="W121" s="17">
+      <c r="W121" s="14">
         <v>1.49360275268555</v>
       </c>
-      <c r="X121" s="17">
+      <c r="X121" s="14">
         <v>1.5343723297119101</v>
       </c>
     </row>
-    <row r="122" spans="1:24" s="17" customFormat="1">
-      <c r="A122" s="17">
+    <row r="122" spans="1:24" s="14" customFormat="1">
+      <c r="A122" s="14">
         <v>1</v>
       </c>
-      <c r="B122" s="17">
+      <c r="B122" s="14">
         <v>150</v>
       </c>
-      <c r="C122" s="17">
+      <c r="C122" s="14">
         <v>20</v>
       </c>
-      <c r="D122" s="17" t="s">
+      <c r="D122" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E122" s="17">
+      <c r="E122" s="14">
         <v>0</v>
       </c>
-      <c r="F122" s="17">
+      <c r="F122" s="14">
         <v>1.12495446205139</v>
       </c>
-      <c r="G122" s="17">
+      <c r="G122" s="14">
         <v>1.1440470218658401</v>
       </c>
-      <c r="H122" s="17">
+      <c r="H122" s="14">
         <v>1.1929247379303001</v>
       </c>
-      <c r="I122" s="17">
+      <c r="I122" s="14">
         <v>1.2117896080017101</v>
       </c>
-      <c r="J122" s="17">
+      <c r="J122" s="14">
         <v>1.2427773475646999</v>
       </c>
-      <c r="K122" s="17">
+      <c r="K122" s="14">
         <v>1.25241422653198</v>
       </c>
-      <c r="L122" s="17">
+      <c r="L122" s="14">
         <v>1.2740159034728999</v>
       </c>
-      <c r="M122" s="17">
+      <c r="M122" s="14">
         <v>1.2863028049469001</v>
       </c>
-      <c r="N122" s="17">
+      <c r="N122" s="14">
         <v>1.3043024539947501</v>
       </c>
-      <c r="O122" s="17">
+      <c r="O122" s="14">
         <v>1.3105263710021999</v>
       </c>
-      <c r="P122" s="17">
+      <c r="P122" s="14">
         <v>1.3203594684600799</v>
       </c>
-      <c r="Q122" s="17">
+      <c r="Q122" s="14">
         <v>1.36246037483215</v>
       </c>
-      <c r="R122" s="17">
+      <c r="R122" s="14">
         <v>1.3690335750579801</v>
       </c>
-      <c r="S122" s="17">
+      <c r="S122" s="14">
         <v>1.3742928504943801</v>
       </c>
-      <c r="T122" s="17">
+      <c r="T122" s="14">
         <v>1.3789656162262001</v>
       </c>
-      <c r="U122" s="17">
+      <c r="U122" s="14">
         <v>1.3829693794250499</v>
       </c>
-      <c r="V122" s="17">
+      <c r="V122" s="14">
         <v>1.39465832710266</v>
       </c>
-      <c r="W122" s="17">
+      <c r="W122" s="14">
         <v>1.4057574272155799</v>
       </c>
-      <c r="X122" s="17">
+      <c r="X122" s="14">
         <v>1.4271337985992401</v>
       </c>
     </row>
-    <row r="123" spans="1:24" s="17" customFormat="1">
-      <c r="A123" s="17">
+    <row r="123" spans="1:24" s="14" customFormat="1">
+      <c r="A123" s="14">
         <v>1</v>
       </c>
-      <c r="B123" s="17">
+      <c r="B123" s="14">
         <v>150</v>
       </c>
-      <c r="C123" s="17">
+      <c r="C123" s="14">
         <v>20</v>
       </c>
-      <c r="D123" s="17" t="s">
+      <c r="D123" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E123" s="17">
+      <c r="E123" s="14">
         <v>0</v>
       </c>
-      <c r="F123" s="17">
+      <c r="F123" s="14">
         <v>1.1779654026031501</v>
       </c>
-      <c r="G123" s="17">
+      <c r="G123" s="14">
         <v>1.2040882110595701</v>
       </c>
-      <c r="H123" s="17">
+      <c r="H123" s="14">
         <v>1.2940371036529501</v>
       </c>
-      <c r="I123" s="17">
+      <c r="I123" s="14">
         <v>1.3059833049774201</v>
       </c>
-      <c r="J123" s="17">
+      <c r="J123" s="14">
         <v>1.3344910144805899</v>
       </c>
-      <c r="K123" s="17">
+      <c r="K123" s="14">
         <v>1.3554494380950901</v>
       </c>
-      <c r="L123" s="17">
+      <c r="L123" s="14">
         <v>1.35756516456604</v>
       </c>
-      <c r="M123" s="17">
+      <c r="M123" s="14">
         <v>1.3599991798400899</v>
       </c>
-      <c r="N123" s="17">
+      <c r="N123" s="14">
         <v>1.3951165676116899</v>
       </c>
-      <c r="O123" s="17">
+      <c r="O123" s="14">
         <v>1.41127634048462</v>
       </c>
-      <c r="P123" s="17">
+      <c r="P123" s="14">
         <v>1.41150403022766</v>
       </c>
-      <c r="Q123" s="17">
+      <c r="Q123" s="14">
         <v>1.41158151626587</v>
       </c>
-      <c r="R123" s="17">
+      <c r="R123" s="14">
         <v>1.4140031337737999</v>
       </c>
-      <c r="S123" s="17">
+      <c r="S123" s="14">
         <v>1.4153208732605</v>
       </c>
-      <c r="T123" s="17">
+      <c r="T123" s="14">
         <v>1.4185311794280999</v>
       </c>
-      <c r="U123" s="17">
+      <c r="U123" s="14">
         <v>1.41857361793518</v>
       </c>
-      <c r="V123" s="17">
+      <c r="V123" s="14">
         <v>1.43314456939697</v>
       </c>
-      <c r="W123" s="17">
+      <c r="W123" s="14">
         <v>1.4459302425384499</v>
       </c>
-      <c r="X123" s="17">
+      <c r="X123" s="14">
         <v>1.4582591056823699</v>
       </c>
     </row>
-    <row r="124" spans="1:24" s="17" customFormat="1">
-      <c r="A124" s="17">
+    <row r="124" spans="1:24" s="14" customFormat="1">
+      <c r="A124" s="14">
         <v>1</v>
       </c>
-      <c r="B124" s="17">
+      <c r="B124" s="14">
         <v>150</v>
       </c>
-      <c r="C124" s="17">
+      <c r="C124" s="14">
         <v>20</v>
       </c>
-      <c r="D124" s="17" t="s">
+      <c r="D124" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E124" s="17">
+      <c r="E124" s="14">
         <v>0</v>
       </c>
-      <c r="F124" s="17">
+      <c r="F124" s="14">
         <v>1.1089060306549099</v>
       </c>
-      <c r="G124" s="17">
+      <c r="G124" s="14">
         <v>1.21381211280823</v>
       </c>
-      <c r="H124" s="17">
+      <c r="H124" s="14">
         <v>1.30378770828247</v>
       </c>
-      <c r="I124" s="17">
+      <c r="I124" s="14">
         <v>1.30398750305176</v>
       </c>
-      <c r="J124" s="17">
+      <c r="J124" s="14">
         <v>1.30815553665161</v>
       </c>
-      <c r="K124" s="17">
+      <c r="K124" s="14">
         <v>1.32001948356628</v>
       </c>
-      <c r="L124" s="17">
+      <c r="L124" s="14">
         <v>1.32333731651306</v>
       </c>
-      <c r="M124" s="17">
+      <c r="M124" s="14">
         <v>1.32865118980408</v>
       </c>
-      <c r="N124" s="17">
+      <c r="N124" s="14">
         <v>1.32989025115967</v>
       </c>
-      <c r="O124" s="17">
+      <c r="O124" s="14">
         <v>1.36855316162109</v>
       </c>
-      <c r="P124" s="17">
+      <c r="P124" s="14">
         <v>1.3804674148559599</v>
       </c>
-      <c r="Q124" s="17">
+      <c r="Q124" s="14">
         <v>1.39282870292664</v>
       </c>
-      <c r="R124" s="17">
+      <c r="R124" s="14">
         <v>1.40840172767639</v>
       </c>
-      <c r="S124" s="17">
+      <c r="S124" s="14">
         <v>1.40951204299927</v>
       </c>
-      <c r="T124" s="17">
+      <c r="T124" s="14">
         <v>1.41679835319519</v>
       </c>
-      <c r="U124" s="17">
+      <c r="U124" s="14">
         <v>1.4273028373718299</v>
       </c>
-      <c r="V124" s="17">
+      <c r="V124" s="14">
         <v>1.43031978607178</v>
       </c>
-      <c r="W124" s="17">
+      <c r="W124" s="14">
         <v>1.4435188770294201</v>
       </c>
-      <c r="X124" s="17">
+      <c r="X124" s="14">
         <v>1.44597840309143</v>
       </c>
     </row>
@@ -14126,7 +14093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14663,7 +14630,7 @@
       <c r="A11" s="2">
         <v>0.1</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>0.31954412460559556</v>
       </c>
     </row>
@@ -14671,7 +14638,7 @@
       <c r="A12" s="2">
         <v>0.2</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>0.38033361435758278</v>
       </c>
     </row>
@@ -14679,7 +14646,7 @@
       <c r="A13" s="2">
         <v>0.5</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>0.83302211761474587</v>
       </c>
     </row>
@@ -14687,16 +14654,16 @@
       <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>1.4365088740987308</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="2">
         <v>1.5</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>2.0822169780731201</v>
       </c>
     </row>
@@ -14704,7 +14671,7 @@
       <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>2.6793390342167456</v>
       </c>
     </row>
@@ -14712,7 +14679,7 @@
       <c r="A17" s="2">
         <v>2.5</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>3.2530495643615724</v>
       </c>
     </row>
@@ -14723,11 +14690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.8"/>
@@ -15263,7 +15230,7 @@
         <f>B11*A12/100</f>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>1.2916402286953401</v>
       </c>
     </row>
@@ -15275,7 +15242,7 @@
         <f>B11*A13/100</f>
         <v>0.45</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>1.352910131216049</v>
       </c>
     </row>
@@ -15287,7 +15254,7 @@
         <f>B11*A14/100</f>
         <v>0.9</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>1.4365088740987308</v>
       </c>
     </row>
@@ -15299,7 +15266,7 @@
         <f>B11*A15/100</f>
         <v>1.8</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>1.503542852401734</v>
       </c>
     </row>
@@ -15311,7 +15278,7 @@
         <f>B11*A16/100</f>
         <v>2.7</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>1.4794239732954222</v>
       </c>
     </row>
@@ -15323,7 +15290,7 @@
         <f>B11*A17/100</f>
         <v>3.6</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>1.566001653671264</v>
       </c>
     </row>
@@ -15335,7 +15302,7 @@
         <f>B11*A18/100</f>
         <v>5.4</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <v>1.598941040039064</v>
       </c>
     </row>
@@ -15346,80 +15313,80 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.69921875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="5" max="24" width="11.69921875" style="14"/>
+    <col min="5" max="24" width="11.69921875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="13">
         <v>0</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="13">
         <v>1</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="13">
         <v>2</v>
       </c>
-      <c r="H1" s="15">
+      <c r="H1" s="13">
         <v>3</v>
       </c>
-      <c r="I1" s="15">
+      <c r="I1" s="13">
         <v>4</v>
       </c>
-      <c r="J1" s="15">
+      <c r="J1" s="13">
         <v>5</v>
       </c>
-      <c r="K1" s="15">
+      <c r="K1" s="13">
         <v>6</v>
       </c>
-      <c r="L1" s="15">
+      <c r="L1" s="13">
         <v>7</v>
       </c>
-      <c r="M1" s="15">
+      <c r="M1" s="13">
         <v>8</v>
       </c>
-      <c r="N1" s="15">
+      <c r="N1" s="13">
         <v>9</v>
       </c>
-      <c r="O1" s="15">
+      <c r="O1" s="13">
         <v>10</v>
       </c>
-      <c r="P1" s="15">
+      <c r="P1" s="13">
         <v>11</v>
       </c>
-      <c r="Q1" s="15">
+      <c r="Q1" s="13">
         <v>12</v>
       </c>
-      <c r="R1" s="15">
+      <c r="R1" s="13">
         <v>13</v>
       </c>
-      <c r="S1" s="15">
+      <c r="S1" s="13">
         <v>14</v>
       </c>
-      <c r="T1" s="15">
+      <c r="T1" s="13">
         <v>15</v>
       </c>
-      <c r="U1" s="15">
+      <c r="U1" s="13">
         <v>16</v>
       </c>
-      <c r="V1" s="15">
+      <c r="V1" s="13">
         <v>17</v>
       </c>
-      <c r="W1" s="15">
+      <c r="W1" s="13">
         <v>18</v>
       </c>
-      <c r="X1" s="15">
+      <c r="X1" s="13">
         <v>19</v>
       </c>
     </row>
@@ -15436,64 +15403,64 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="11">
         <v>0</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="11">
         <v>1.2260662487531742</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="11">
         <v>1.2577779293019984</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <v>1.2713653700708174</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="11">
         <v>1.2788630894268926</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="11">
         <v>1.2889713559795999</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="11">
         <v>1.29464282308947</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="11">
         <v>1.2966053485800784</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="11">
         <v>1.3124277251170857</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="11">
         <v>1.3174304621524087</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="11">
         <v>1.3278836522816029</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="11">
         <v>1.3333341053537213</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="11">
         <v>1.3411405086484274</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="11">
         <v>1.3475539684348257</v>
       </c>
-      <c r="S2" s="13">
+      <c r="S2" s="11">
         <v>1.3544292449890898</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="11">
         <v>1.3625467504765429</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="11">
         <v>1.3708030155655657</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="11">
         <v>1.3823603561899442</v>
       </c>
-      <c r="W2" s="13">
+      <c r="W2" s="11">
         <v>1.39780460085422</v>
       </c>
-      <c r="X2" s="13">
+      <c r="X2" s="11">
         <v>1.4340314524518971</v>
       </c>
     </row>
@@ -15510,64 +15477,64 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>0</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>1.1881098270416259</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>1.2435190200805639</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <v>1.2529663085937499</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="11">
         <v>1.4355351924896222</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <v>1.4550089359283442</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="11">
         <v>1.8097779273986803</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="11">
         <v>1.9656441211700417</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="11">
         <v>1.9937455177307135</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="11">
         <v>2.1785834312438981</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="11">
         <v>2.1983930110931382</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="11">
         <v>2.2048333644866922</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="11">
         <v>2.3909447669982917</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="11">
         <v>2.3981411933898942</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="11">
         <v>2.4117840290069559</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="11">
         <v>2.4244180679321259</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="11">
         <v>2.5983951568603501</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V3" s="11">
         <v>2.7553921222686757</v>
       </c>
-      <c r="W3" s="13">
+      <c r="W3" s="11">
         <v>2.94000267982483</v>
       </c>
-      <c r="X3" s="13">
+      <c r="X3" s="11">
         <v>2.9743943214416495</v>
       </c>
     </row>
@@ -15584,64 +15551,64 @@
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>0</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>1.186999177932742</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <v>1.2275598526000979</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <v>1.2484200000762942</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="11">
         <v>1.2598002910614019</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <v>1.6197381019592278</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <v>1.64134316444397</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="11">
         <v>1.9768269538879397</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="11">
         <v>2.0078605651855499</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="11">
         <v>2.1537660121917739</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="11">
         <v>2.1829237937927277</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="11">
         <v>2.1983033657073978</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="11">
         <v>2.2012318611145019</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="11">
         <v>2.2091682434082021</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="11">
         <v>2.2299967288970941</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="11">
         <v>2.2352460861206063</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="11">
         <v>2.4119318962097163</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="11">
         <v>2.7773931026458722</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="11">
         <v>2.7966520786285378</v>
       </c>
-      <c r="X4" s="13">
+      <c r="X4" s="11">
         <v>3.1696265697479253</v>
       </c>
     </row>
@@ -15649,7 +15616,7 @@
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>1.4340314524518971</v>
       </c>
     </row>
@@ -15657,7 +15624,7 @@
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>2.9743943214416495</v>
       </c>
     </row>
@@ -15665,7 +15632,7 @@
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>3.1696265697479253</v>
       </c>
     </row>

--- a/results_partial.xlsx
+++ b/results_partial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technion\project2\bitcoin-git\bitcoin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{061CE0F8-FABE-49C6-B2C4-8FDC4EA05E14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{84C5E696-BAA4-4EB6-A9B4-C331E59B286A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="142" uniqueCount="8">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="164" uniqueCount="9">
   <si>
     <t>block size</t>
   </si>
@@ -59,6 +59,9 @@
   <si>
     <t>node</t>
   </si>
+  <si>
+    <t>clique</t>
+  </si>
 </sst>
 </file>
 
@@ -69,7 +72,7 @@
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +112,13 @@
       <color rgb="FF009900"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +128,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,7 +158,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -158,8 +172,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1149,10 +1165,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="106"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="6"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1228,7 +1244,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1236,13 +1252,70 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75%"/>
+                        <a:lumOff val="25%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35%"/>
+                          <a:lumOff val="65%"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>topology!$A$10:$A$12</c:f>
+              <c:f>topology!$A$17:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>mesh</c:v>
+                  <c:v>clique</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>static</c:v>
@@ -1255,7 +1328,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>topology!$B$10:$B$12</c:f>
+              <c:f>topology!$B$17:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1565,10 +1638,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="106"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="6"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1647,7 +1720,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent6">
                   <a:shade val="65%"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -1660,13 +1733,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent6">
                   <a:shade val="65%"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent6">
                     <a:shade val="65%"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -1756,7 +1829,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1767,11 +1840,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1859,7 +1932,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent6">
                   <a:tint val="65%"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -1872,13 +1945,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent6">
                   <a:tint val="65%"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent6">
                     <a:tint val="65%"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -2273,6 +2346,1185 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dissamination time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0%"/>
+              <a:t> of different topologies </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75%"/>
+                        <a:lumOff val="25%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35%"/>
+                          <a:lumOff val="65%"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>topology!$A$24:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>clique</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>static</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>topology!$B$24:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.5048974884880923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4992734909057619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4459334850311278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A493-4307-9246-BE7570F4A657}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="667207439"/>
+        <c:axId val="871875903"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="667207439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>topology</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="871875903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="871875903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time (sec)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="667207439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dissamination process</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0%"/>
+              <a:t> over number of nodes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="65%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="65%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="65%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>topology!$F$6:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.1519423590766067</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.226349830627441</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2615478833516445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2855362627241353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.302859067916871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3159482744004989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.325089401668972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3369514147440589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3448743820190421</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.356208801269531</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.359346522225273</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3736121654510489</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3821247418721498</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3902217812008313</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3982756667666978</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4077422353956444</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4202059639824756</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4629779921637636</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5048974884880923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4958-4D01-A986-C49B5A5CB58E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>topology!$F$7:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.1641753673553468</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2360215187072741</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.269958400726318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4268709182739279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.79712915420532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9661483287811279</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1220813751220673</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1514126300811762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1598657131195083</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2054216384887702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3454176425933837</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.397920083999634</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5713601112365745</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5957605361938478</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7412724018096921</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9789069652557378</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1322780132293722</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1740092277526855</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4992734909057619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4958-4D01-A986-C49B5A5CB58E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="65%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="65%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:tint val="65%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>topology!$F$8:$X$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.1791440963745126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.248172473907472</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4500840187072761</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9269962310791038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1150096893310542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.197629547119142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.253733015060424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.263308715820314</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2896378040313743</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4334448814392102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5005279541015617</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8923038959503158</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0667795658111561</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1359229087829581</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1454148292541477</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.201142740249634</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2074732780456543</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2465697765350341</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4459334850311278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4958-4D01-A986-C49B5A5CB58E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="992764063"/>
+        <c:axId val="870177055"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="992764063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870177055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="870177055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="992764063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
@@ -2286,12 +3538,55 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
 </cs:colorStyle>
@@ -4335,6 +5630,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
@@ -4486,6 +6787,80 @@
       <a:graphic>
         <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
           <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2691CCC5-DB25-48BB-B1D3-650995F24569}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>803910</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F58A4C-A620-4CEE-BE26-33A76947DDF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4791,10 +7166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X137"/>
+  <dimension ref="A1:X162"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111:XFD111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10679,299 +13054,299 @@
         <v>1.24127697944641</v>
       </c>
     </row>
-    <row r="88" spans="1:24" s="14" customFormat="1">
-      <c r="A88" s="14">
+    <row r="88" spans="1:24" s="13" customFormat="1">
+      <c r="A88" s="13">
         <v>1</v>
       </c>
-      <c r="B88" s="14">
+      <c r="B88" s="13">
         <v>1</v>
       </c>
-      <c r="C88" s="14">
+      <c r="C88" s="13">
         <v>20</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D88" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E88" s="13">
         <v>0</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F88" s="13">
         <v>1.07200360298157</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G88" s="13">
         <v>1.10529232025146</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H88" s="13">
         <v>1.1573913097381601</v>
       </c>
-      <c r="I88" s="14">
+      <c r="I88" s="13">
         <v>1.16456842422485</v>
       </c>
-      <c r="J88" s="14">
+      <c r="J88" s="13">
         <v>1.1687269210815401</v>
       </c>
-      <c r="K88" s="14">
+      <c r="K88" s="13">
         <v>1.17324447631836</v>
       </c>
-      <c r="L88" s="14">
+      <c r="L88" s="13">
         <v>1.17952108383179</v>
       </c>
-      <c r="M88" s="14">
+      <c r="M88" s="13">
         <v>1.18643474578857</v>
       </c>
-      <c r="N88" s="14">
+      <c r="N88" s="13">
         <v>1.1911768913269001</v>
       </c>
-      <c r="O88" s="14">
+      <c r="O88" s="13">
         <v>1.22200798988342</v>
       </c>
-      <c r="P88" s="14">
+      <c r="P88" s="13">
         <v>1.2327976226806601</v>
       </c>
-      <c r="Q88" s="14">
+      <c r="Q88" s="13">
         <v>1.23754239082336</v>
       </c>
-      <c r="R88" s="14">
+      <c r="R88" s="13">
         <v>1.2400872707366899</v>
       </c>
-      <c r="S88" s="14">
+      <c r="S88" s="13">
         <v>1.2467129230499301</v>
       </c>
-      <c r="T88" s="14">
+      <c r="T88" s="13">
         <v>1.2468786239623999</v>
       </c>
-      <c r="U88" s="14">
+      <c r="U88" s="13">
         <v>1.25902152061462</v>
       </c>
-      <c r="V88" s="14">
+      <c r="V88" s="13">
         <v>1.2637512683868399</v>
       </c>
-      <c r="W88" s="14">
+      <c r="W88" s="13">
         <v>1.26995801925659</v>
       </c>
-      <c r="X88" s="14">
+      <c r="X88" s="13">
         <v>1.3040149211883501</v>
       </c>
     </row>
-    <row r="89" spans="1:24" s="14" customFormat="1">
-      <c r="A89" s="14">
+    <row r="89" spans="1:24" s="13" customFormat="1">
+      <c r="A89" s="13">
         <v>1</v>
       </c>
-      <c r="B89" s="14">
+      <c r="B89" s="13">
         <v>1</v>
       </c>
-      <c r="C89" s="14">
+      <c r="C89" s="13">
         <v>20</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D89" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E89" s="13">
         <v>0</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F89" s="13">
         <v>1.0965554714202901</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G89" s="13">
         <v>1.1247420310974101</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H89" s="13">
         <v>1.1402130126953101</v>
       </c>
-      <c r="I89" s="14">
+      <c r="I89" s="13">
         <v>1.14072608947754</v>
       </c>
-      <c r="J89" s="14">
+      <c r="J89" s="13">
         <v>1.1486556529998799</v>
       </c>
-      <c r="K89" s="14">
+      <c r="K89" s="13">
         <v>1.1700286865234399</v>
       </c>
-      <c r="L89" s="14">
+      <c r="L89" s="13">
         <v>1.1758275032043499</v>
       </c>
-      <c r="M89" s="14">
+      <c r="M89" s="13">
         <v>1.1783428192138701</v>
       </c>
-      <c r="N89" s="14">
+      <c r="N89" s="13">
         <v>1.1891670227050799</v>
       </c>
-      <c r="O89" s="14">
+      <c r="O89" s="13">
         <v>1.1900815963745099</v>
       </c>
-      <c r="P89" s="14">
+      <c r="P89" s="13">
         <v>1.19993448257446</v>
       </c>
-      <c r="Q89" s="14">
+      <c r="Q89" s="13">
         <v>1.20197772979736</v>
       </c>
-      <c r="R89" s="14">
+      <c r="R89" s="13">
         <v>1.20663094520569</v>
       </c>
-      <c r="S89" s="14">
+      <c r="S89" s="13">
         <v>1.2423722743987999</v>
       </c>
-      <c r="T89" s="14">
+      <c r="T89" s="13">
         <v>1.2502398490905799</v>
       </c>
-      <c r="U89" s="14">
+      <c r="U89" s="13">
         <v>1.2600412368774401</v>
       </c>
-      <c r="V89" s="14">
+      <c r="V89" s="13">
         <v>1.2656660079956099</v>
       </c>
-      <c r="W89" s="14">
+      <c r="W89" s="13">
         <v>1.2745378017425499</v>
       </c>
-      <c r="X89" s="14">
+      <c r="X89" s="13">
         <v>1.35480356216431</v>
       </c>
     </row>
-    <row r="90" spans="1:24" s="14" customFormat="1">
-      <c r="A90" s="14">
+    <row r="90" spans="1:24" s="13" customFormat="1">
+      <c r="A90" s="13">
         <v>1</v>
       </c>
-      <c r="B90" s="14">
+      <c r="B90" s="13">
         <v>1</v>
       </c>
-      <c r="C90" s="14">
+      <c r="C90" s="13">
         <v>20</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D90" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E90" s="13">
         <v>0</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F90" s="13">
         <v>0.92296910285949696</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G90" s="13">
         <v>1.06023025512695</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H90" s="13">
         <v>1.08963966369629</v>
       </c>
-      <c r="I90" s="14">
+      <c r="I90" s="13">
         <v>1.10108041763306</v>
       </c>
-      <c r="J90" s="14">
+      <c r="J90" s="13">
         <v>1.1259727478027299</v>
       </c>
-      <c r="K90" s="14">
+      <c r="K90" s="13">
         <v>1.15544104576111</v>
       </c>
-      <c r="L90" s="14">
+      <c r="L90" s="13">
         <v>1.16247606277466</v>
       </c>
-      <c r="M90" s="14">
+      <c r="M90" s="13">
         <v>1.16991710662842</v>
       </c>
-      <c r="N90" s="14">
+      <c r="N90" s="13">
         <v>1.17360067367554</v>
       </c>
-      <c r="O90" s="14">
+      <c r="O90" s="13">
         <v>1.1860828399658201</v>
       </c>
-      <c r="P90" s="14">
+      <c r="P90" s="13">
         <v>1.18645715713501</v>
       </c>
-      <c r="Q90" s="14">
+      <c r="Q90" s="13">
         <v>1.19228172302246</v>
       </c>
-      <c r="R90" s="14">
+      <c r="R90" s="13">
         <v>1.1929671764373799</v>
       </c>
-      <c r="S90" s="14">
+      <c r="S90" s="13">
         <v>1.2013213634491</v>
       </c>
-      <c r="T90" s="14">
+      <c r="T90" s="13">
         <v>1.2022109031677199</v>
       </c>
-      <c r="U90" s="14">
+      <c r="U90" s="13">
         <v>1.2023627758026101</v>
       </c>
-      <c r="V90" s="14">
+      <c r="V90" s="13">
         <v>1.2027161121368399</v>
       </c>
-      <c r="W90" s="14">
+      <c r="W90" s="13">
         <v>1.21971106529236</v>
       </c>
-      <c r="X90" s="14">
+      <c r="X90" s="13">
         <v>1.2947142124176001</v>
       </c>
     </row>
-    <row r="91" spans="1:24" s="14" customFormat="1">
-      <c r="A91" s="14">
+    <row r="91" spans="1:24" s="13" customFormat="1">
+      <c r="A91" s="13">
         <v>1</v>
       </c>
-      <c r="B91" s="14">
+      <c r="B91" s="13">
         <v>1</v>
       </c>
-      <c r="C91" s="14">
+      <c r="C91" s="13">
         <v>20</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E91" s="13">
         <v>0</v>
       </c>
-      <c r="F91" s="14">
+      <c r="F91" s="13">
         <v>1.0998129844665501</v>
       </c>
-      <c r="G91" s="14">
+      <c r="G91" s="13">
         <v>1.10515809059143</v>
       </c>
-      <c r="H91" s="14">
+      <c r="H91" s="13">
         <v>1.1075849533081099</v>
       </c>
-      <c r="I91" s="14">
+      <c r="I91" s="13">
         <v>1.1127128601074201</v>
       </c>
-      <c r="J91" s="14">
+      <c r="J91" s="13">
         <v>1.15269994735718</v>
       </c>
-      <c r="K91" s="14">
+      <c r="K91" s="13">
         <v>1.1614990234375</v>
       </c>
-      <c r="L91" s="14">
+      <c r="L91" s="13">
         <v>1.1701755523681601</v>
       </c>
-      <c r="M91" s="14">
+      <c r="M91" s="13">
         <v>1.1753401756286601</v>
       </c>
-      <c r="N91" s="14">
+      <c r="N91" s="13">
         <v>1.1891734600067101</v>
       </c>
-      <c r="O91" s="14">
+      <c r="O91" s="13">
         <v>1.19786024093628</v>
       </c>
-      <c r="P91" s="14">
+      <c r="P91" s="13">
         <v>1.21424531936646</v>
       </c>
-      <c r="Q91" s="14">
+      <c r="Q91" s="13">
         <v>1.22749352455139</v>
       </c>
-      <c r="R91" s="14">
+      <c r="R91" s="13">
         <v>1.2341525554657</v>
       </c>
-      <c r="S91" s="14">
+      <c r="S91" s="13">
         <v>1.2353141307830799</v>
       </c>
-      <c r="T91" s="14">
+      <c r="T91" s="13">
         <v>1.23930644989014</v>
       </c>
-      <c r="U91" s="14">
+      <c r="U91" s="13">
         <v>1.2472114562988299</v>
       </c>
-      <c r="V91" s="14">
+      <c r="V91" s="13">
         <v>1.25318431854248</v>
       </c>
-      <c r="W91" s="14">
+      <c r="W91" s="13">
         <v>1.2542803287506099</v>
       </c>
-      <c r="X91" s="14">
+      <c r="X91" s="13">
         <v>1.2819411754608201</v>
       </c>
     </row>
@@ -11439,225 +13814,225 @@
         <v>1.3269288539886499</v>
       </c>
     </row>
-    <row r="98" spans="1:24" s="14" customFormat="1">
-      <c r="A98" s="14">
+    <row r="98" spans="1:24" s="13" customFormat="1">
+      <c r="A98" s="13">
         <v>1</v>
       </c>
-      <c r="B98" s="14">
+      <c r="B98" s="13">
         <v>25</v>
       </c>
-      <c r="C98" s="14">
+      <c r="C98" s="13">
         <v>20</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E98" s="14">
+      <c r="E98" s="13">
         <v>0</v>
       </c>
-      <c r="F98" s="14">
+      <c r="F98" s="13">
         <v>1.0488300323486299</v>
       </c>
-      <c r="G98" s="14">
+      <c r="G98" s="13">
         <v>1.1286633014678999</v>
       </c>
-      <c r="H98" s="14">
+      <c r="H98" s="13">
         <v>1.1555421352386499</v>
       </c>
-      <c r="I98" s="14">
+      <c r="I98" s="13">
         <v>1.1799843311309799</v>
       </c>
-      <c r="J98" s="14">
+      <c r="J98" s="13">
         <v>1.19013595581055</v>
       </c>
-      <c r="K98" s="14">
+      <c r="K98" s="13">
         <v>1.2168111801147501</v>
       </c>
-      <c r="L98" s="14">
+      <c r="L98" s="13">
         <v>1.2203238010406501</v>
       </c>
-      <c r="M98" s="14">
+      <c r="M98" s="13">
         <v>1.24025130271912</v>
       </c>
-      <c r="N98" s="14">
+      <c r="N98" s="13">
         <v>1.24442315101624</v>
       </c>
-      <c r="O98" s="14">
+      <c r="O98" s="13">
         <v>1.2599740028381301</v>
       </c>
-      <c r="P98" s="14">
+      <c r="P98" s="13">
         <v>1.2707149982452399</v>
       </c>
-      <c r="Q98" s="14">
+      <c r="Q98" s="13">
         <v>1.2759964466095</v>
       </c>
-      <c r="R98" s="14">
+      <c r="R98" s="13">
         <v>1.2889387607574501</v>
       </c>
-      <c r="S98" s="14">
+      <c r="S98" s="13">
         <v>1.3125748634338399</v>
       </c>
-      <c r="T98" s="14">
+      <c r="T98" s="13">
         <v>1.3131103515625</v>
       </c>
-      <c r="U98" s="14">
+      <c r="U98" s="13">
         <v>1.32803010940552</v>
       </c>
-      <c r="V98" s="14">
+      <c r="V98" s="13">
         <v>1.3334753513336199</v>
       </c>
-      <c r="W98" s="14">
+      <c r="W98" s="13">
         <v>1.3382887840271001</v>
       </c>
-      <c r="X98" s="14">
+      <c r="X98" s="13">
         <v>1.3639557361602801</v>
       </c>
     </row>
-    <row r="99" spans="1:24" s="14" customFormat="1">
-      <c r="A99" s="14">
+    <row r="99" spans="1:24" s="13" customFormat="1">
+      <c r="A99" s="13">
         <v>1</v>
       </c>
-      <c r="B99" s="14">
+      <c r="B99" s="13">
         <v>25</v>
       </c>
-      <c r="C99" s="14">
+      <c r="C99" s="13">
         <v>20</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D99" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E99" s="14">
+      <c r="E99" s="13">
         <v>0</v>
       </c>
-      <c r="F99" s="14">
+      <c r="F99" s="13">
         <v>1.06511378288269</v>
       </c>
-      <c r="G99" s="14">
+      <c r="G99" s="13">
         <v>1.06976413726807</v>
       </c>
-      <c r="H99" s="14">
+      <c r="H99" s="13">
         <v>1.0896518230438199</v>
       </c>
-      <c r="I99" s="14">
+      <c r="I99" s="13">
         <v>1.1265184879303001</v>
       </c>
-      <c r="J99" s="14">
+      <c r="J99" s="13">
         <v>1.15597701072693</v>
       </c>
-      <c r="K99" s="14">
+      <c r="K99" s="13">
         <v>1.16245937347412</v>
       </c>
-      <c r="L99" s="14">
+      <c r="L99" s="13">
         <v>1.19202160835266</v>
       </c>
-      <c r="M99" s="14">
+      <c r="M99" s="13">
         <v>1.1946985721588099</v>
       </c>
-      <c r="N99" s="14">
+      <c r="N99" s="13">
         <v>1.19719409942627</v>
       </c>
-      <c r="O99" s="14">
+      <c r="O99" s="13">
         <v>1.2165343761444101</v>
       </c>
-      <c r="P99" s="14">
+      <c r="P99" s="13">
         <v>1.2232763767242401</v>
       </c>
-      <c r="Q99" s="14">
+      <c r="Q99" s="13">
         <v>1.22808766365051</v>
       </c>
-      <c r="R99" s="14">
+      <c r="R99" s="13">
         <v>1.2338175773620601</v>
       </c>
-      <c r="S99" s="14">
+      <c r="S99" s="13">
         <v>1.2465288639068599</v>
       </c>
-      <c r="T99" s="14">
+      <c r="T99" s="13">
         <v>1.2600908279418901</v>
       </c>
-      <c r="U99" s="14">
+      <c r="U99" s="13">
         <v>1.2819390296936</v>
       </c>
-      <c r="V99" s="14">
+      <c r="V99" s="13">
         <v>1.2927119731903101</v>
       </c>
-      <c r="W99" s="14">
+      <c r="W99" s="13">
         <v>1.2953414916992201</v>
       </c>
-      <c r="X99" s="14">
+      <c r="X99" s="13">
         <v>1.2965452671051001</v>
       </c>
     </row>
-    <row r="100" spans="1:24" s="14" customFormat="1">
-      <c r="A100" s="14">
+    <row r="100" spans="1:24" s="13" customFormat="1">
+      <c r="A100" s="13">
         <v>1</v>
       </c>
-      <c r="B100" s="14">
+      <c r="B100" s="13">
         <v>25</v>
       </c>
-      <c r="C100" s="14">
+      <c r="C100" s="13">
         <v>20</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D100" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="14">
+      <c r="E100" s="13">
         <v>0</v>
       </c>
-      <c r="F100" s="14">
+      <c r="F100" s="13">
         <v>1.0264253616332999</v>
       </c>
-      <c r="G100" s="14">
+      <c r="G100" s="13">
         <v>1.0501027107238801</v>
       </c>
-      <c r="H100" s="14">
+      <c r="H100" s="13">
         <v>1.06947588920593</v>
       </c>
-      <c r="I100" s="14">
+      <c r="I100" s="13">
         <v>1.09831738471985</v>
       </c>
-      <c r="J100" s="14">
+      <c r="J100" s="13">
         <v>1.1660847663879399</v>
       </c>
-      <c r="K100" s="14">
+      <c r="K100" s="13">
         <v>1.1937401294708301</v>
       </c>
-      <c r="L100" s="14">
+      <c r="L100" s="13">
         <v>1.1971347332000699</v>
       </c>
-      <c r="M100" s="14">
+      <c r="M100" s="13">
         <v>1.22779893875122</v>
       </c>
-      <c r="N100" s="14">
+      <c r="N100" s="13">
         <v>1.2368676662445099</v>
       </c>
-      <c r="O100" s="14">
+      <c r="O100" s="13">
         <v>1.2401704788207999</v>
       </c>
-      <c r="P100" s="14">
+      <c r="P100" s="13">
         <v>1.2448801994323699</v>
       </c>
-      <c r="Q100" s="14">
+      <c r="Q100" s="13">
         <v>1.26206278800964</v>
       </c>
-      <c r="R100" s="14">
+      <c r="R100" s="13">
         <v>1.2630248069763199</v>
       </c>
-      <c r="S100" s="14">
+      <c r="S100" s="13">
         <v>1.2658324241638199</v>
       </c>
-      <c r="T100" s="14">
+      <c r="T100" s="13">
         <v>1.26643943786621</v>
       </c>
-      <c r="U100" s="14">
+      <c r="U100" s="13">
         <v>1.27260541915894</v>
       </c>
-      <c r="V100" s="14">
+      <c r="V100" s="13">
         <v>1.2937765121460001</v>
       </c>
-      <c r="W100" s="14">
+      <c r="W100" s="13">
         <v>1.2971222400665301</v>
       </c>
-      <c r="X100" s="14">
+      <c r="X100" s="13">
         <v>1.44821548461914</v>
       </c>
     </row>
@@ -12125,187 +14500,395 @@
         <v>1.4069895744323699</v>
       </c>
     </row>
-    <row r="107" spans="1:24" s="4" customFormat="1">
-      <c r="A107" s="4">
+    <row r="107" spans="1:24" s="14" customFormat="1">
+      <c r="A107" s="14">
         <v>1</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="14">
         <v>100</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="14">
         <v>20</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E107" s="7">
-        <f>AVERAGE(E102:E106)</f>
+      <c r="E107" s="14">
         <v>0</v>
       </c>
-      <c r="F107" s="7">
-        <f t="shared" ref="F107:X107" si="12">AVERAGE(F102:F106)</f>
-        <v>1.2036578655242922</v>
-      </c>
-      <c r="G107" s="7">
+      <c r="F107" s="14">
+        <v>1.01128649711609</v>
+      </c>
+      <c r="G107" s="14">
+        <v>1.1101670265197801</v>
+      </c>
+      <c r="H107" s="14">
+        <v>1.1541919708252</v>
+      </c>
+      <c r="I107" s="14">
+        <v>1.17282819747925</v>
+      </c>
+      <c r="J107" s="14">
+        <v>1.22131824493408</v>
+      </c>
+      <c r="K107" s="14">
+        <v>1.2233915328979501</v>
+      </c>
+      <c r="L107" s="14">
+        <v>1.2299501895904501</v>
+      </c>
+      <c r="M107" s="14">
+        <v>1.28944969177246</v>
+      </c>
+      <c r="N107" s="14">
+        <v>1.2895133495330799</v>
+      </c>
+      <c r="O107" s="14">
+        <v>1.31870436668396</v>
+      </c>
+      <c r="P107" s="14">
+        <v>1.32833528518677</v>
+      </c>
+      <c r="Q107" s="14">
+        <v>1.36032462120056</v>
+      </c>
+      <c r="R107" s="14">
+        <v>1.36689376831055</v>
+      </c>
+      <c r="S107" s="14">
+        <v>1.3709545135498</v>
+      </c>
+      <c r="T107" s="14">
+        <v>1.3749690055847199</v>
+      </c>
+      <c r="U107" s="14">
+        <v>1.3820064067840601</v>
+      </c>
+      <c r="V107" s="14">
+        <v>1.3943965435028101</v>
+      </c>
+      <c r="W107" s="14">
+        <v>1.4383692741394001</v>
+      </c>
+      <c r="X107" s="14">
+        <v>1.4921224117279099</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" s="14" customFormat="1">
+      <c r="A108" s="14">
+        <v>1</v>
+      </c>
+      <c r="B108" s="14">
+        <v>100</v>
+      </c>
+      <c r="C108" s="14">
+        <v>20</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="14">
+        <v>0</v>
+      </c>
+      <c r="F108" s="14">
+        <v>1.0581750869751001</v>
+      </c>
+      <c r="G108" s="14">
+        <v>1.0958325862884499</v>
+      </c>
+      <c r="H108" s="14">
+        <v>1.20131587982178</v>
+      </c>
+      <c r="I108" s="14">
+        <v>1.2476646900177</v>
+      </c>
+      <c r="J108" s="14">
+        <v>1.2907857894897501</v>
+      </c>
+      <c r="K108" s="14">
+        <v>1.32492303848267</v>
+      </c>
+      <c r="L108" s="14">
+        <v>1.3607268333435101</v>
+      </c>
+      <c r="M108" s="14">
+        <v>1.36257004737854</v>
+      </c>
+      <c r="N108" s="14">
+        <v>1.36968970298767</v>
+      </c>
+      <c r="O108" s="14">
+        <v>1.3717010021209699</v>
+      </c>
+      <c r="P108" s="14">
+        <v>1.3722610473632799</v>
+      </c>
+      <c r="Q108" s="14">
+        <v>1.3763329982757599</v>
+      </c>
+      <c r="R108" s="14">
+        <v>1.3906431198120099</v>
+      </c>
+      <c r="S108" s="14">
+        <v>1.39779353141785</v>
+      </c>
+      <c r="T108" s="14">
+        <v>1.4047985076904299</v>
+      </c>
+      <c r="U108" s="14">
+        <v>1.4203400611877399</v>
+      </c>
+      <c r="V108" s="14">
+        <v>1.4286072254180899</v>
+      </c>
+      <c r="W108" s="14">
+        <v>1.5248990058898899</v>
+      </c>
+      <c r="X108" s="14">
+        <v>1.5738055706024201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" s="14" customFormat="1">
+      <c r="A109" s="14">
+        <v>1</v>
+      </c>
+      <c r="B109" s="14">
+        <v>100</v>
+      </c>
+      <c r="C109" s="14">
+        <v>20</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="14">
+        <v>0</v>
+      </c>
+      <c r="F109" s="14">
+        <v>1.1798288822174099</v>
+      </c>
+      <c r="G109" s="14">
+        <v>1.22852802276611</v>
+      </c>
+      <c r="H109" s="14">
+        <v>1.27694892883301</v>
+      </c>
+      <c r="I109" s="14">
+        <v>1.30927634239197</v>
+      </c>
+      <c r="J109" s="14">
+        <v>1.30956411361694</v>
+      </c>
+      <c r="K109" s="14">
+        <v>1.31398773193359</v>
+      </c>
+      <c r="L109" s="14">
+        <v>1.3283653259277299</v>
+      </c>
+      <c r="M109" s="14">
+        <v>1.33118176460266</v>
+      </c>
+      <c r="N109" s="14">
+        <v>1.3369321823120099</v>
+      </c>
+      <c r="O109" s="14">
+        <v>1.3382811546325699</v>
+      </c>
+      <c r="P109" s="14">
+        <v>1.3437809944152801</v>
+      </c>
+      <c r="Q109" s="14">
+        <v>1.3635737895965601</v>
+      </c>
+      <c r="R109" s="14">
+        <v>1.3651802539825399</v>
+      </c>
+      <c r="S109" s="14">
+        <v>1.3924415111541699</v>
+      </c>
+      <c r="T109" s="14">
+        <v>1.4056196212768599</v>
+      </c>
+      <c r="U109" s="14">
+        <v>1.40653872489929</v>
+      </c>
+      <c r="V109" s="14">
+        <v>1.43677878379822</v>
+      </c>
+      <c r="W109" s="14">
+        <v>1.47560834884644</v>
+      </c>
+      <c r="X109" s="14">
+        <v>1.50836682319641</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" s="14" customFormat="1">
+      <c r="A110" s="14">
+        <v>1</v>
+      </c>
+      <c r="B110" s="14">
+        <v>100</v>
+      </c>
+      <c r="C110" s="14">
+        <v>20</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" s="14">
+        <v>0</v>
+      </c>
+      <c r="F110" s="14">
+        <v>1.0999014377594001</v>
+      </c>
+      <c r="G110" s="14">
+        <v>1.19342112541199</v>
+      </c>
+      <c r="H110" s="14">
+        <v>1.2029099464416499</v>
+      </c>
+      <c r="I110" s="14">
+        <v>1.2551109790802</v>
+      </c>
+      <c r="J110" s="14">
+        <v>1.2669632434845</v>
+      </c>
+      <c r="K110" s="14">
+        <v>1.2911951541900599</v>
+      </c>
+      <c r="L110" s="14">
+        <v>1.30433917045593</v>
+      </c>
+      <c r="M110" s="14">
+        <v>1.3049631118774401</v>
+      </c>
+      <c r="N110" s="14">
+        <v>1.3108990192413299</v>
+      </c>
+      <c r="O110" s="14">
+        <v>1.34146428108215</v>
+      </c>
+      <c r="P110" s="14">
+        <v>1.3434140682220499</v>
+      </c>
+      <c r="Q110" s="14">
+        <v>1.4007809162139899</v>
+      </c>
+      <c r="R110" s="14">
+        <v>1.41598296165466</v>
+      </c>
+      <c r="S110" s="14">
+        <v>1.4244537353515601</v>
+      </c>
+      <c r="T110" s="14">
+        <v>1.4269387722015401</v>
+      </c>
+      <c r="U110" s="14">
+        <v>1.4374532699585001</v>
+      </c>
+      <c r="V110" s="14">
+        <v>1.4393513202667201</v>
+      </c>
+      <c r="W110" s="14">
+        <v>1.44235563278198</v>
+      </c>
+      <c r="X110" s="14">
+        <v>1.4520683288574201</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" s="4" customFormat="1">
+      <c r="A111" s="4">
+        <v>1</v>
+      </c>
+      <c r="B111" s="4">
+        <v>100</v>
+      </c>
+      <c r="C111" s="4">
+        <v>20</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="7">
+        <f>AVERAGE(E102:E110)</f>
+        <v>0</v>
+      </c>
+      <c r="F111" s="7">
+        <f t="shared" ref="F111:X111" si="12">AVERAGE(F102:F110)</f>
+        <v>1.1519423590766067</v>
+      </c>
+      <c r="G111" s="7">
         <f t="shared" si="12"/>
-        <v>1.2818399429321281</v>
-      </c>
-      <c r="H107" s="7">
+        <v>1.226349830627441</v>
+      </c>
+      <c r="H111" s="7">
         <f t="shared" si="12"/>
-        <v>1.3037128448486319</v>
-      </c>
-      <c r="I107" s="7">
+        <v>1.2615478833516445</v>
+      </c>
+      <c r="I111" s="7">
         <f t="shared" si="12"/>
-        <v>1.3169892311096201</v>
-      </c>
-      <c r="J107" s="7">
+        <v>1.2855362627241353</v>
+      </c>
+      <c r="J111" s="7">
         <f t="shared" si="12"/>
-        <v>1.3274200439453139</v>
-      </c>
-      <c r="K107" s="7">
+        <v>1.302859067916871</v>
+      </c>
+      <c r="K111" s="7">
         <f t="shared" si="12"/>
-        <v>1.3380074024200439</v>
-      </c>
-      <c r="L107" s="7">
+        <v>1.3159482744004989</v>
+      </c>
+      <c r="L111" s="7">
         <f t="shared" si="12"/>
-        <v>1.3404846191406261</v>
-      </c>
-      <c r="M107" s="7">
+        <v>1.325089401668972</v>
+      </c>
+      <c r="M111" s="7">
         <f t="shared" si="12"/>
-        <v>1.348879623413086</v>
-      </c>
-      <c r="N107" s="7">
+        <v>1.3369514147440589</v>
+      </c>
+      <c r="N111" s="7">
         <f t="shared" si="12"/>
-        <v>1.3593670368194579</v>
-      </c>
-      <c r="O107" s="7">
+        <v>1.3448743820190421</v>
+      </c>
+      <c r="O111" s="7">
         <f t="shared" si="12"/>
-        <v>1.3671456813812259</v>
-      </c>
-      <c r="P107" s="7">
+        <v>1.356208801269531</v>
+      </c>
+      <c r="P111" s="7">
         <f t="shared" si="12"/>
-        <v>1.3692654609680157</v>
-      </c>
-      <c r="Q107" s="7">
+        <v>1.359346522225273</v>
+      </c>
+      <c r="Q111" s="7">
         <f t="shared" si="12"/>
-        <v>1.3722994327545142</v>
-      </c>
-      <c r="R107" s="7">
+        <v>1.3736121654510489</v>
+      </c>
+      <c r="R111" s="7">
         <f t="shared" si="12"/>
-        <v>1.3800845146179179</v>
-      </c>
-      <c r="S107" s="7">
+        <v>1.3821247418721498</v>
+      </c>
+      <c r="S111" s="7">
         <f t="shared" si="12"/>
-        <v>1.3852705478668201</v>
-      </c>
-      <c r="T107" s="7">
+        <v>1.3902217812008313</v>
+      </c>
+      <c r="T111" s="7">
         <f t="shared" si="12"/>
-        <v>1.3944310188293461</v>
-      </c>
-      <c r="U107" s="7">
+        <v>1.3982756667666978</v>
+      </c>
+      <c r="U111" s="7">
         <f t="shared" si="12"/>
-        <v>1.404668331146242</v>
-      </c>
-      <c r="V107" s="7">
+        <v>1.4077422353956444</v>
+      </c>
+      <c r="V111" s="7">
         <f t="shared" si="12"/>
-        <v>1.416543960571288</v>
-      </c>
-      <c r="W107" s="7">
+        <v>1.4202059639824756</v>
+      </c>
+      <c r="W111" s="7">
         <f t="shared" si="12"/>
-        <v>1.4571139335632322</v>
-      </c>
-      <c r="X107" s="7">
+        <v>1.4629779921637636</v>
+      </c>
+      <c r="X111" s="7">
         <f t="shared" si="12"/>
-        <v>1.503542852401734</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24">
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="6"/>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="6"/>
-      <c r="S108" s="6"/>
-      <c r="T108" s="6"/>
-      <c r="U108" s="6"/>
-      <c r="V108" s="6"/>
-      <c r="W108" s="6"/>
-      <c r="X108" s="6"/>
-    </row>
-    <row r="109" spans="1:24">
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="6"/>
-      <c r="Q109" s="6"/>
-      <c r="R109" s="6"/>
-      <c r="S109" s="6"/>
-      <c r="T109" s="6"/>
-      <c r="U109" s="6"/>
-      <c r="V109" s="6"/>
-      <c r="W109" s="6"/>
-      <c r="X109" s="6"/>
-    </row>
-    <row r="110" spans="1:24">
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="6"/>
-      <c r="S110" s="6"/>
-      <c r="T110" s="6"/>
-      <c r="U110" s="6"/>
-      <c r="V110" s="6"/>
-      <c r="W110" s="6"/>
-      <c r="X110" s="6"/>
-    </row>
-    <row r="111" spans="1:24">
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="6"/>
-      <c r="Q111" s="6"/>
-      <c r="R111" s="6"/>
-      <c r="S111" s="6"/>
-      <c r="T111" s="6"/>
-      <c r="U111" s="6"/>
-      <c r="V111" s="6"/>
-      <c r="W111" s="6"/>
-      <c r="X111" s="6"/>
+        <v>1.5048974884880923</v>
+      </c>
     </row>
     <row r="112" spans="1:24">
       <c r="E112" s="6"/>
@@ -12396,300 +14979,92 @@
       <c r="X115" s="6"/>
     </row>
     <row r="116" spans="1:24">
-      <c r="A116">
-        <v>1</v>
-      </c>
-      <c r="B116">
-        <v>150</v>
-      </c>
-      <c r="C116">
-        <v>20</v>
-      </c>
-      <c r="D116" t="s">
-        <v>4</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>1.1713058948516799</v>
-      </c>
-      <c r="G116">
-        <v>1.2501640319824201</v>
-      </c>
-      <c r="H116">
-        <v>1.2515466213226301</v>
-      </c>
-      <c r="I116">
-        <v>1.3307478427887001</v>
-      </c>
-      <c r="J116">
-        <v>1.33139753341675</v>
-      </c>
-      <c r="K116">
-        <v>1.3405508995056199</v>
-      </c>
-      <c r="L116">
-        <v>1.3606872558593801</v>
-      </c>
-      <c r="M116">
-        <v>1.3642814159393299</v>
-      </c>
-      <c r="N116">
-        <v>1.3684539794921899</v>
-      </c>
-      <c r="O116">
-        <v>1.3685100078582799</v>
-      </c>
-      <c r="P116">
-        <v>1.371666431427</v>
-      </c>
-      <c r="Q116">
-        <v>1.387943983078</v>
-      </c>
-      <c r="R116">
-        <v>1.3936505317687999</v>
-      </c>
-      <c r="S116">
-        <v>1.3951725959777801</v>
-      </c>
-      <c r="T116">
-        <v>1.4077677726745601</v>
-      </c>
-      <c r="U116">
-        <v>1.4231364727020299</v>
-      </c>
-      <c r="V116">
-        <v>1.42604827880859</v>
-      </c>
-      <c r="W116">
-        <v>1.4423668384552</v>
-      </c>
-      <c r="X116">
-        <v>1.5914158821105999</v>
-      </c>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+      <c r="T116" s="6"/>
+      <c r="U116" s="6"/>
+      <c r="V116" s="6"/>
+      <c r="W116" s="6"/>
+      <c r="X116" s="6"/>
     </row>
     <row r="117" spans="1:24">
-      <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="B117">
-        <v>150</v>
-      </c>
-      <c r="C117">
-        <v>20</v>
-      </c>
-      <c r="D117" t="s">
-        <v>4</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>1.0716593265533401</v>
-      </c>
-      <c r="G117">
-        <v>1.2146680355071999</v>
-      </c>
-      <c r="H117">
-        <v>1.2731907367706301</v>
-      </c>
-      <c r="I117">
-        <v>1.30841541290283</v>
-      </c>
-      <c r="J117">
-        <v>1.3261740207672099</v>
-      </c>
-      <c r="K117">
-        <v>1.34791684150696</v>
-      </c>
-      <c r="L117">
-        <v>1.35051441192627</v>
-      </c>
-      <c r="M117">
-        <v>1.36122179031372</v>
-      </c>
-      <c r="N117">
-        <v>1.36414051055908</v>
-      </c>
-      <c r="O117">
-        <v>1.36532211303711</v>
-      </c>
-      <c r="P117">
-        <v>1.36987781524658</v>
-      </c>
-      <c r="Q117">
-        <v>1.37397980690002</v>
-      </c>
-      <c r="R117">
-        <v>1.3756742477417001</v>
-      </c>
-      <c r="S117">
-        <v>1.3836073875427199</v>
-      </c>
-      <c r="T117">
-        <v>1.4011540412902801</v>
-      </c>
-      <c r="U117">
-        <v>1.40267157554626</v>
-      </c>
-      <c r="V117">
-        <v>1.40557765960693</v>
-      </c>
-      <c r="W117">
-        <v>1.41044044494629</v>
-      </c>
-      <c r="X117">
-        <v>1.41920161247253</v>
-      </c>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="6"/>
+      <c r="T117" s="6"/>
+      <c r="U117" s="6"/>
+      <c r="V117" s="6"/>
+      <c r="W117" s="6"/>
+      <c r="X117" s="6"/>
     </row>
     <row r="118" spans="1:24">
-      <c r="A118">
-        <v>1</v>
-      </c>
-      <c r="B118">
-        <v>150</v>
-      </c>
-      <c r="C118">
-        <v>20</v>
-      </c>
-      <c r="D118" t="s">
-        <v>4</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>1.28751921653748</v>
-      </c>
-      <c r="G118">
-        <v>1.3232963085174601</v>
-      </c>
-      <c r="H118">
-        <v>1.33606553077698</v>
-      </c>
-      <c r="I118">
-        <v>1.33903956413269</v>
-      </c>
-      <c r="J118">
-        <v>1.34861016273499</v>
-      </c>
-      <c r="K118">
-        <v>1.3529372215271001</v>
-      </c>
-      <c r="L118">
-        <v>1.3531405925750699</v>
-      </c>
-      <c r="M118">
-        <v>1.35419774055481</v>
-      </c>
-      <c r="N118">
-        <v>1.35831022262573</v>
-      </c>
-      <c r="O118">
-        <v>1.37474584579468</v>
-      </c>
-      <c r="P118">
-        <v>1.3810341358184799</v>
-      </c>
-      <c r="Q118">
-        <v>1.38296747207642</v>
-      </c>
-      <c r="R118">
-        <v>1.38666319847107</v>
-      </c>
-      <c r="S118">
-        <v>1.3887746334075901</v>
-      </c>
-      <c r="T118">
-        <v>1.3894889354705799</v>
-      </c>
-      <c r="U118">
-        <v>1.39492011070251</v>
-      </c>
-      <c r="V118">
-        <v>1.4044291973114</v>
-      </c>
-      <c r="W118">
-        <v>1.42026495933533</v>
-      </c>
-      <c r="X118">
-        <v>1.44218397140503</v>
-      </c>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="6"/>
+      <c r="T118" s="6"/>
+      <c r="U118" s="6"/>
+      <c r="V118" s="6"/>
+      <c r="W118" s="6"/>
+      <c r="X118" s="6"/>
     </row>
     <row r="119" spans="1:24">
-      <c r="A119">
-        <v>1</v>
-      </c>
-      <c r="B119">
-        <v>150</v>
-      </c>
-      <c r="C119">
-        <v>20</v>
-      </c>
-      <c r="D119" t="s">
-        <v>4</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>1.2717690467834499</v>
-      </c>
-      <c r="G119">
-        <v>1.2824623584747299</v>
-      </c>
-      <c r="H119">
-        <v>1.3169813156127901</v>
-      </c>
-      <c r="I119">
-        <v>1.3308022022247299</v>
-      </c>
-      <c r="J119">
-        <v>1.3480021953582799</v>
-      </c>
-      <c r="K119">
-        <v>1.35983109474182</v>
-      </c>
-      <c r="L119">
-        <v>1.36445140838623</v>
-      </c>
-      <c r="M119">
-        <v>1.3725235462188701</v>
-      </c>
-      <c r="N119">
-        <v>1.3880200386047401</v>
-      </c>
-      <c r="O119">
-        <v>1.39237785339355</v>
-      </c>
-      <c r="P119">
-        <v>1.3939137458801301</v>
-      </c>
-      <c r="Q119">
-        <v>1.40838122367859</v>
-      </c>
-      <c r="R119">
-        <v>1.40873026847839</v>
-      </c>
-      <c r="S119">
-        <v>1.4161236286163299</v>
-      </c>
-      <c r="T119">
-        <v>1.41654372215271</v>
-      </c>
-      <c r="U119">
-        <v>1.42278051376343</v>
-      </c>
-      <c r="V119">
-        <v>1.42582654953003</v>
-      </c>
-      <c r="W119">
-        <v>1.43434286117554</v>
-      </c>
-      <c r="X119">
-        <v>1.4740123748779299</v>
-      </c>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="6"/>
+      <c r="T119" s="6"/>
+      <c r="U119" s="6"/>
+      <c r="V119" s="6"/>
+      <c r="W119" s="6"/>
+      <c r="X119" s="6"/>
     </row>
     <row r="120" spans="1:24">
       <c r="A120">
@@ -12708,747 +15083,747 @@
         <v>0</v>
       </c>
       <c r="F120">
+        <v>1.1713058948516799</v>
+      </c>
+      <c r="G120">
+        <v>1.2501640319824201</v>
+      </c>
+      <c r="H120">
+        <v>1.2515466213226301</v>
+      </c>
+      <c r="I120">
+        <v>1.3307478427887001</v>
+      </c>
+      <c r="J120">
+        <v>1.33139753341675</v>
+      </c>
+      <c r="K120">
+        <v>1.3405508995056199</v>
+      </c>
+      <c r="L120">
+        <v>1.3606872558593801</v>
+      </c>
+      <c r="M120">
+        <v>1.3642814159393299</v>
+      </c>
+      <c r="N120">
+        <v>1.3684539794921899</v>
+      </c>
+      <c r="O120">
+        <v>1.3685100078582799</v>
+      </c>
+      <c r="P120">
+        <v>1.371666431427</v>
+      </c>
+      <c r="Q120">
+        <v>1.387943983078</v>
+      </c>
+      <c r="R120">
+        <v>1.3936505317687999</v>
+      </c>
+      <c r="S120">
+        <v>1.3951725959777801</v>
+      </c>
+      <c r="T120">
+        <v>1.4077677726745601</v>
+      </c>
+      <c r="U120">
+        <v>1.4231364727020299</v>
+      </c>
+      <c r="V120">
+        <v>1.42604827880859</v>
+      </c>
+      <c r="W120">
+        <v>1.4423668384552</v>
+      </c>
+      <c r="X120">
+        <v>1.5914158821105999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>150</v>
+      </c>
+      <c r="C121">
+        <v>20</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>1.0716593265533401</v>
+      </c>
+      <c r="G121">
+        <v>1.2146680355071999</v>
+      </c>
+      <c r="H121">
+        <v>1.2731907367706301</v>
+      </c>
+      <c r="I121">
+        <v>1.30841541290283</v>
+      </c>
+      <c r="J121">
+        <v>1.3261740207672099</v>
+      </c>
+      <c r="K121">
+        <v>1.34791684150696</v>
+      </c>
+      <c r="L121">
+        <v>1.35051441192627</v>
+      </c>
+      <c r="M121">
+        <v>1.36122179031372</v>
+      </c>
+      <c r="N121">
+        <v>1.36414051055908</v>
+      </c>
+      <c r="O121">
+        <v>1.36532211303711</v>
+      </c>
+      <c r="P121">
+        <v>1.36987781524658</v>
+      </c>
+      <c r="Q121">
+        <v>1.37397980690002</v>
+      </c>
+      <c r="R121">
+        <v>1.3756742477417001</v>
+      </c>
+      <c r="S121">
+        <v>1.3836073875427199</v>
+      </c>
+      <c r="T121">
+        <v>1.4011540412902801</v>
+      </c>
+      <c r="U121">
+        <v>1.40267157554626</v>
+      </c>
+      <c r="V121">
+        <v>1.40557765960693</v>
+      </c>
+      <c r="W121">
+        <v>1.41044044494629</v>
+      </c>
+      <c r="X121">
+        <v>1.41920161247253</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>150</v>
+      </c>
+      <c r="C122">
+        <v>20</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>1.28751921653748</v>
+      </c>
+      <c r="G122">
+        <v>1.3232963085174601</v>
+      </c>
+      <c r="H122">
+        <v>1.33606553077698</v>
+      </c>
+      <c r="I122">
+        <v>1.33903956413269</v>
+      </c>
+      <c r="J122">
+        <v>1.34861016273499</v>
+      </c>
+      <c r="K122">
+        <v>1.3529372215271001</v>
+      </c>
+      <c r="L122">
+        <v>1.3531405925750699</v>
+      </c>
+      <c r="M122">
+        <v>1.35419774055481</v>
+      </c>
+      <c r="N122">
+        <v>1.35831022262573</v>
+      </c>
+      <c r="O122">
+        <v>1.37474584579468</v>
+      </c>
+      <c r="P122">
+        <v>1.3810341358184799</v>
+      </c>
+      <c r="Q122">
+        <v>1.38296747207642</v>
+      </c>
+      <c r="R122">
+        <v>1.38666319847107</v>
+      </c>
+      <c r="S122">
+        <v>1.3887746334075901</v>
+      </c>
+      <c r="T122">
+        <v>1.3894889354705799</v>
+      </c>
+      <c r="U122">
+        <v>1.39492011070251</v>
+      </c>
+      <c r="V122">
+        <v>1.4044291973114</v>
+      </c>
+      <c r="W122">
+        <v>1.42026495933533</v>
+      </c>
+      <c r="X122">
+        <v>1.44218397140503</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>150</v>
+      </c>
+      <c r="C123">
+        <v>20</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1.2717690467834499</v>
+      </c>
+      <c r="G123">
+        <v>1.2824623584747299</v>
+      </c>
+      <c r="H123">
+        <v>1.3169813156127901</v>
+      </c>
+      <c r="I123">
+        <v>1.3308022022247299</v>
+      </c>
+      <c r="J123">
+        <v>1.3480021953582799</v>
+      </c>
+      <c r="K123">
+        <v>1.35983109474182</v>
+      </c>
+      <c r="L123">
+        <v>1.36445140838623</v>
+      </c>
+      <c r="M123">
+        <v>1.3725235462188701</v>
+      </c>
+      <c r="N123">
+        <v>1.3880200386047401</v>
+      </c>
+      <c r="O123">
+        <v>1.39237785339355</v>
+      </c>
+      <c r="P123">
+        <v>1.3939137458801301</v>
+      </c>
+      <c r="Q123">
+        <v>1.40838122367859</v>
+      </c>
+      <c r="R123">
+        <v>1.40873026847839</v>
+      </c>
+      <c r="S123">
+        <v>1.4161236286163299</v>
+      </c>
+      <c r="T123">
+        <v>1.41654372215271</v>
+      </c>
+      <c r="U123">
+        <v>1.42278051376343</v>
+      </c>
+      <c r="V123">
+        <v>1.42582654953003</v>
+      </c>
+      <c r="W123">
+        <v>1.43434286117554</v>
+      </c>
+      <c r="X123">
+        <v>1.4740123748779299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>150</v>
+      </c>
+      <c r="C124">
+        <v>20</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
         <v>1.15427398681641</v>
       </c>
-      <c r="G120">
+      <c r="G124">
         <v>1.2678120136261</v>
       </c>
-      <c r="H120">
+      <c r="H124">
         <v>1.2813637256622299</v>
       </c>
-      <c r="I120">
+      <c r="I124">
         <v>1.28733038902283</v>
       </c>
-      <c r="J120">
+      <c r="J124">
         <v>1.2895548343658401</v>
       </c>
-      <c r="K120">
+      <c r="K124">
         <v>1.2908852100372299</v>
       </c>
-      <c r="L120">
+      <c r="L124">
         <v>1.29865527153015</v>
       </c>
-      <c r="M120">
+      <c r="M124">
         <v>1.3258874416351301</v>
       </c>
-      <c r="N120">
+      <c r="N124">
         <v>1.3301849365234399</v>
       </c>
-      <c r="O120">
+      <c r="O124">
         <v>1.33061146736145</v>
       </c>
-      <c r="P120">
+      <c r="P124">
         <v>1.3363285064697299</v>
       </c>
-      <c r="Q120">
+      <c r="Q124">
         <v>1.3407523632049601</v>
       </c>
-      <c r="R120">
+      <c r="R124">
         <v>1.3656222820282</v>
       </c>
-      <c r="S120">
+      <c r="S124">
         <v>1.3751392364502</v>
       </c>
-      <c r="T120">
+      <c r="T124">
         <v>1.3844535350799601</v>
       </c>
-      <c r="U120">
+      <c r="U124">
         <v>1.39629507064819</v>
       </c>
-      <c r="V120">
+      <c r="V124">
         <v>1.41246318817139</v>
       </c>
-      <c r="W120">
+      <c r="W124">
         <v>1.4290874004364</v>
       </c>
-      <c r="X120">
+      <c r="X124">
         <v>1.5222582817077599</v>
       </c>
     </row>
-    <row r="121" spans="1:24" s="14" customFormat="1">
-      <c r="A121" s="14">
+    <row r="125" spans="1:24" s="13" customFormat="1">
+      <c r="A125" s="13">
         <v>1</v>
       </c>
-      <c r="B121" s="14">
+      <c r="B125" s="13">
         <v>150</v>
       </c>
-      <c r="C121" s="14">
+      <c r="C125" s="13">
         <v>20</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D125" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E121" s="14">
+      <c r="E125" s="13">
         <v>0</v>
       </c>
-      <c r="F121" s="14">
+      <c r="F125" s="13">
         <v>1.2879421710968</v>
       </c>
-      <c r="G121" s="14">
+      <c r="G125" s="13">
         <v>1.2986321449279801</v>
       </c>
-      <c r="H121" s="14">
+      <c r="H125" s="13">
         <v>1.323570728302</v>
       </c>
-      <c r="I121" s="14">
+      <c r="I125" s="13">
         <v>1.3455080986023</v>
       </c>
-      <c r="J121" s="14">
+      <c r="J125" s="13">
         <v>1.34764575958252</v>
       </c>
-      <c r="K121" s="14">
+      <c r="K125" s="13">
         <v>1.34935975074768</v>
       </c>
-      <c r="L121" s="14">
+      <c r="L125" s="13">
         <v>1.3494400978088399</v>
       </c>
-      <c r="M121" s="14">
+      <c r="M125" s="13">
         <v>1.3698368072509799</v>
       </c>
-      <c r="N121" s="14">
+      <c r="N125" s="13">
         <v>1.37560987472534</v>
       </c>
-      <c r="O121" s="14">
+      <c r="O125" s="13">
         <v>1.3799352645873999</v>
       </c>
-      <c r="P121" s="14">
+      <c r="P125" s="13">
         <v>1.3897106647491499</v>
       </c>
-      <c r="Q121" s="14">
+      <c r="Q125" s="13">
         <v>1.4035406112670901</v>
       </c>
-      <c r="R121" s="14">
+      <c r="R125" s="13">
         <v>1.4106011390686</v>
       </c>
-      <c r="S121" s="14">
+      <c r="S125" s="13">
         <v>1.41435623168945</v>
       </c>
-      <c r="T121" s="14">
+      <c r="T125" s="13">
         <v>1.41886281967163</v>
       </c>
-      <c r="U121" s="14">
+      <c r="U125" s="13">
         <v>1.42568612098694</v>
       </c>
-      <c r="V121" s="14">
+      <c r="V125" s="13">
         <v>1.4379694461822501</v>
       </c>
-      <c r="W121" s="14">
+      <c r="W125" s="13">
         <v>1.49360275268555</v>
       </c>
-      <c r="X121" s="14">
+      <c r="X125" s="13">
         <v>1.5343723297119101</v>
       </c>
     </row>
-    <row r="122" spans="1:24" s="14" customFormat="1">
-      <c r="A122" s="14">
+    <row r="126" spans="1:24" s="13" customFormat="1">
+      <c r="A126" s="13">
         <v>1</v>
       </c>
-      <c r="B122" s="14">
+      <c r="B126" s="13">
         <v>150</v>
       </c>
-      <c r="C122" s="14">
+      <c r="C126" s="13">
         <v>20</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="D126" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E122" s="14">
+      <c r="E126" s="13">
         <v>0</v>
       </c>
-      <c r="F122" s="14">
+      <c r="F126" s="13">
         <v>1.12495446205139</v>
       </c>
-      <c r="G122" s="14">
+      <c r="G126" s="13">
         <v>1.1440470218658401</v>
       </c>
-      <c r="H122" s="14">
+      <c r="H126" s="13">
         <v>1.1929247379303001</v>
       </c>
-      <c r="I122" s="14">
+      <c r="I126" s="13">
         <v>1.2117896080017101</v>
       </c>
-      <c r="J122" s="14">
+      <c r="J126" s="13">
         <v>1.2427773475646999</v>
       </c>
-      <c r="K122" s="14">
+      <c r="K126" s="13">
         <v>1.25241422653198</v>
       </c>
-      <c r="L122" s="14">
+      <c r="L126" s="13">
         <v>1.2740159034728999</v>
       </c>
-      <c r="M122" s="14">
+      <c r="M126" s="13">
         <v>1.2863028049469001</v>
       </c>
-      <c r="N122" s="14">
+      <c r="N126" s="13">
         <v>1.3043024539947501</v>
       </c>
-      <c r="O122" s="14">
+      <c r="O126" s="13">
         <v>1.3105263710021999</v>
       </c>
-      <c r="P122" s="14">
+      <c r="P126" s="13">
         <v>1.3203594684600799</v>
       </c>
-      <c r="Q122" s="14">
+      <c r="Q126" s="13">
         <v>1.36246037483215</v>
       </c>
-      <c r="R122" s="14">
+      <c r="R126" s="13">
         <v>1.3690335750579801</v>
       </c>
-      <c r="S122" s="14">
+      <c r="S126" s="13">
         <v>1.3742928504943801</v>
       </c>
-      <c r="T122" s="14">
+      <c r="T126" s="13">
         <v>1.3789656162262001</v>
       </c>
-      <c r="U122" s="14">
+      <c r="U126" s="13">
         <v>1.3829693794250499</v>
       </c>
-      <c r="V122" s="14">
+      <c r="V126" s="13">
         <v>1.39465832710266</v>
       </c>
-      <c r="W122" s="14">
+      <c r="W126" s="13">
         <v>1.4057574272155799</v>
       </c>
-      <c r="X122" s="14">
+      <c r="X126" s="13">
         <v>1.4271337985992401</v>
       </c>
     </row>
-    <row r="123" spans="1:24" s="14" customFormat="1">
-      <c r="A123" s="14">
+    <row r="127" spans="1:24" s="13" customFormat="1">
+      <c r="A127" s="13">
         <v>1</v>
       </c>
-      <c r="B123" s="14">
+      <c r="B127" s="13">
         <v>150</v>
       </c>
-      <c r="C123" s="14">
+      <c r="C127" s="13">
         <v>20</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D127" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E123" s="14">
+      <c r="E127" s="13">
         <v>0</v>
       </c>
-      <c r="F123" s="14">
+      <c r="F127" s="13">
         <v>1.1779654026031501</v>
       </c>
-      <c r="G123" s="14">
+      <c r="G127" s="13">
         <v>1.2040882110595701</v>
       </c>
-      <c r="H123" s="14">
+      <c r="H127" s="13">
         <v>1.2940371036529501</v>
       </c>
-      <c r="I123" s="14">
+      <c r="I127" s="13">
         <v>1.3059833049774201</v>
       </c>
-      <c r="J123" s="14">
+      <c r="J127" s="13">
         <v>1.3344910144805899</v>
       </c>
-      <c r="K123" s="14">
+      <c r="K127" s="13">
         <v>1.3554494380950901</v>
       </c>
-      <c r="L123" s="14">
+      <c r="L127" s="13">
         <v>1.35756516456604</v>
       </c>
-      <c r="M123" s="14">
+      <c r="M127" s="13">
         <v>1.3599991798400899</v>
       </c>
-      <c r="N123" s="14">
+      <c r="N127" s="13">
         <v>1.3951165676116899</v>
       </c>
-      <c r="O123" s="14">
+      <c r="O127" s="13">
         <v>1.41127634048462</v>
       </c>
-      <c r="P123" s="14">
+      <c r="P127" s="13">
         <v>1.41150403022766</v>
       </c>
-      <c r="Q123" s="14">
+      <c r="Q127" s="13">
         <v>1.41158151626587</v>
       </c>
-      <c r="R123" s="14">
+      <c r="R127" s="13">
         <v>1.4140031337737999</v>
       </c>
-      <c r="S123" s="14">
+      <c r="S127" s="13">
         <v>1.4153208732605</v>
       </c>
-      <c r="T123" s="14">
+      <c r="T127" s="13">
         <v>1.4185311794280999</v>
       </c>
-      <c r="U123" s="14">
+      <c r="U127" s="13">
         <v>1.41857361793518</v>
       </c>
-      <c r="V123" s="14">
+      <c r="V127" s="13">
         <v>1.43314456939697</v>
       </c>
-      <c r="W123" s="14">
+      <c r="W127" s="13">
         <v>1.4459302425384499</v>
       </c>
-      <c r="X123" s="14">
+      <c r="X127" s="13">
         <v>1.4582591056823699</v>
       </c>
     </row>
-    <row r="124" spans="1:24" s="14" customFormat="1">
-      <c r="A124" s="14">
+    <row r="128" spans="1:24" s="13" customFormat="1">
+      <c r="A128" s="13">
         <v>1</v>
       </c>
-      <c r="B124" s="14">
+      <c r="B128" s="13">
         <v>150</v>
       </c>
-      <c r="C124" s="14">
+      <c r="C128" s="13">
         <v>20</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D128" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E124" s="14">
+      <c r="E128" s="13">
         <v>0</v>
       </c>
-      <c r="F124" s="14">
+      <c r="F128" s="13">
         <v>1.1089060306549099</v>
       </c>
-      <c r="G124" s="14">
+      <c r="G128" s="13">
         <v>1.21381211280823</v>
       </c>
-      <c r="H124" s="14">
+      <c r="H128" s="13">
         <v>1.30378770828247</v>
       </c>
-      <c r="I124" s="14">
+      <c r="I128" s="13">
         <v>1.30398750305176</v>
       </c>
-      <c r="J124" s="14">
+      <c r="J128" s="13">
         <v>1.30815553665161</v>
       </c>
-      <c r="K124" s="14">
+      <c r="K128" s="13">
         <v>1.32001948356628</v>
       </c>
-      <c r="L124" s="14">
+      <c r="L128" s="13">
         <v>1.32333731651306</v>
       </c>
-      <c r="M124" s="14">
+      <c r="M128" s="13">
         <v>1.32865118980408</v>
       </c>
-      <c r="N124" s="14">
+      <c r="N128" s="13">
         <v>1.32989025115967</v>
       </c>
-      <c r="O124" s="14">
+      <c r="O128" s="13">
         <v>1.36855316162109</v>
       </c>
-      <c r="P124" s="14">
+      <c r="P128" s="13">
         <v>1.3804674148559599</v>
       </c>
-      <c r="Q124" s="14">
+      <c r="Q128" s="13">
         <v>1.39282870292664</v>
       </c>
-      <c r="R124" s="14">
+      <c r="R128" s="13">
         <v>1.40840172767639</v>
       </c>
-      <c r="S124" s="14">
+      <c r="S128" s="13">
         <v>1.40951204299927</v>
       </c>
-      <c r="T124" s="14">
+      <c r="T128" s="13">
         <v>1.41679835319519</v>
       </c>
-      <c r="U124" s="14">
+      <c r="U128" s="13">
         <v>1.4273028373718299</v>
       </c>
-      <c r="V124" s="14">
+      <c r="V128" s="13">
         <v>1.43031978607178</v>
       </c>
-      <c r="W124" s="14">
+      <c r="W128" s="13">
         <v>1.4435188770294201</v>
       </c>
-      <c r="X124" s="14">
+      <c r="X128" s="13">
         <v>1.44597840309143</v>
       </c>
     </row>
-    <row r="125" spans="1:24" s="4" customFormat="1">
-      <c r="A125" s="4">
+    <row r="129" spans="1:24" s="4" customFormat="1">
+      <c r="A129" s="4">
         <v>1</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B129" s="4">
         <v>150</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C129" s="4">
         <v>20</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D129" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E125" s="7">
-        <f>AVERAGE(E116:E124)</f>
+      <c r="E129" s="7">
+        <f>AVERAGE(E120:E128)</f>
         <v>0</v>
       </c>
-      <c r="F125" s="7">
-        <f t="shared" ref="F125:X125" si="13">AVERAGE(F116:F124)</f>
+      <c r="F129" s="7">
+        <f t="shared" ref="F129:X129" si="13">AVERAGE(F120:F128)</f>
         <v>1.1840328375498455</v>
       </c>
-      <c r="G125" s="7">
+      <c r="G129" s="7">
         <f t="shared" si="13"/>
         <v>1.244331359863281</v>
       </c>
-      <c r="H125" s="7">
+      <c r="H129" s="7">
         <f t="shared" si="13"/>
         <v>1.2859409120347758</v>
       </c>
-      <c r="I125" s="7">
+      <c r="I129" s="7">
         <f t="shared" si="13"/>
         <v>1.3070671028561078</v>
       </c>
-      <c r="J125" s="7">
+      <c r="J129" s="7">
         <f t="shared" si="13"/>
         <v>1.3196453783247213</v>
       </c>
-      <c r="K125" s="7">
+      <c r="K129" s="7">
         <f t="shared" si="13"/>
         <v>1.3299293518066402</v>
       </c>
-      <c r="L125" s="7">
+      <c r="L129" s="7">
         <f t="shared" si="13"/>
         <v>1.3368674914042156</v>
       </c>
-      <c r="M125" s="7">
+      <c r="M129" s="7">
         <f t="shared" si="13"/>
         <v>1.3469891018337679</v>
       </c>
-      <c r="N125" s="7">
+      <c r="N129" s="7">
         <f t="shared" si="13"/>
         <v>1.3571143150329592</v>
       </c>
-      <c r="O125" s="7">
+      <c r="O129" s="7">
         <f t="shared" si="13"/>
         <v>1.3668731583489313</v>
       </c>
-      <c r="P125" s="7">
+      <c r="P129" s="7">
         <f t="shared" si="13"/>
         <v>1.3727624681260857</v>
       </c>
-      <c r="Q125" s="7">
+      <c r="Q129" s="7">
         <f t="shared" si="13"/>
         <v>1.38493733935886</v>
       </c>
-      <c r="R125" s="7">
+      <c r="R129" s="7">
         <f t="shared" si="13"/>
         <v>1.3924866782294365</v>
       </c>
-      <c r="S125" s="7">
+      <c r="S129" s="7">
         <f t="shared" si="13"/>
         <v>1.3969221644931353</v>
       </c>
-      <c r="T125" s="7">
+      <c r="T129" s="7">
         <f t="shared" si="13"/>
         <v>1.4036184416876902</v>
       </c>
-      <c r="U125" s="7">
+      <c r="U129" s="7">
         <f t="shared" si="13"/>
         <v>1.4104817443423801</v>
       </c>
-      <c r="V125" s="7">
+      <c r="V129" s="7">
         <f t="shared" si="13"/>
         <v>1.4189374446868888</v>
       </c>
-      <c r="W125" s="7">
+      <c r="W129" s="7">
         <f t="shared" si="13"/>
         <v>1.4361457559797512</v>
       </c>
-      <c r="X125" s="7">
+      <c r="X129" s="7">
         <f t="shared" si="13"/>
         <v>1.4794239732954222</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24">
-      <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126">
-        <v>200</v>
-      </c>
-      <c r="C126">
-        <v>20</v>
-      </c>
-      <c r="D126" t="s">
-        <v>4</v>
-      </c>
-      <c r="E126" s="9">
-        <v>0</v>
-      </c>
-      <c r="F126" s="9">
-        <v>1.13277339935303</v>
-      </c>
-      <c r="G126" s="9">
-        <v>1.26892066001892</v>
-      </c>
-      <c r="H126" s="9">
-        <v>1.32430768013</v>
-      </c>
-      <c r="I126" s="9">
-        <v>1.34571433067322</v>
-      </c>
-      <c r="J126" s="9">
-        <v>1.3531897068023699</v>
-      </c>
-      <c r="K126" s="9">
-        <v>1.3562877178192101</v>
-      </c>
-      <c r="L126" s="9">
-        <v>1.3660795688629199</v>
-      </c>
-      <c r="M126" s="9">
-        <v>1.3925323486328101</v>
-      </c>
-      <c r="N126" s="9">
-        <v>1.39871501922607</v>
-      </c>
-      <c r="O126" s="9">
-        <v>1.41660952568054</v>
-      </c>
-      <c r="P126" s="9">
-        <v>1.4243593215942401</v>
-      </c>
-      <c r="Q126" s="9">
-        <v>1.4429688453674301</v>
-      </c>
-      <c r="R126" s="9">
-        <v>1.4472305774688701</v>
-      </c>
-      <c r="S126" s="9">
-        <v>1.4472637176513701</v>
-      </c>
-      <c r="T126" s="9">
-        <v>1.5023815631866499</v>
-      </c>
-      <c r="U126" s="9">
-        <v>1.5035367012023899</v>
-      </c>
-      <c r="V126" s="9">
-        <v>1.50749158859253</v>
-      </c>
-      <c r="W126" s="9">
-        <v>1.5314638614654501</v>
-      </c>
-      <c r="X126" s="9">
-        <v>1.74757647514343</v>
-      </c>
-    </row>
-    <row r="127" spans="1:24">
-      <c r="A127">
-        <v>1</v>
-      </c>
-      <c r="B127">
-        <v>200</v>
-      </c>
-      <c r="C127">
-        <v>20</v>
-      </c>
-      <c r="D127" t="s">
-        <v>4</v>
-      </c>
-      <c r="E127" s="9">
-        <v>0</v>
-      </c>
-      <c r="F127" s="9">
-        <v>1.07690382003784</v>
-      </c>
-      <c r="G127" s="9">
-        <v>1.1826190948486299</v>
-      </c>
-      <c r="H127" s="9">
-        <v>1.2595698833465601</v>
-      </c>
-      <c r="I127" s="9">
-        <v>1.2816653251648</v>
-      </c>
-      <c r="J127" s="9">
-        <v>1.2996928691864</v>
-      </c>
-      <c r="K127" s="9">
-        <v>1.32144355773926</v>
-      </c>
-      <c r="L127" s="9">
-        <v>1.32304692268372</v>
-      </c>
-      <c r="M127" s="9">
-        <v>1.33694767951965</v>
-      </c>
-      <c r="N127" s="9">
-        <v>1.3430271148681601</v>
-      </c>
-      <c r="O127" s="9">
-        <v>1.38235306739807</v>
-      </c>
-      <c r="P127" s="9">
-        <v>1.38487029075623</v>
-      </c>
-      <c r="Q127" s="9">
-        <v>1.4021923542022701</v>
-      </c>
-      <c r="R127" s="9">
-        <v>1.4108207225799601</v>
-      </c>
-      <c r="S127" s="9">
-        <v>1.4146363735198999</v>
-      </c>
-      <c r="T127" s="9">
-        <v>1.4232938289642301</v>
-      </c>
-      <c r="U127" s="9">
-        <v>1.4414465427398699</v>
-      </c>
-      <c r="V127" s="9">
-        <v>1.45887303352356</v>
-      </c>
-      <c r="W127" s="9">
-        <v>1.4589147567748999</v>
-      </c>
-      <c r="X127" s="9">
-        <v>1.4956631660461399</v>
-      </c>
-    </row>
-    <row r="128" spans="1:24">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="B128">
-        <v>200</v>
-      </c>
-      <c r="C128">
-        <v>20</v>
-      </c>
-      <c r="D128" t="s">
-        <v>4</v>
-      </c>
-      <c r="E128" s="9">
-        <v>0</v>
-      </c>
-      <c r="F128" s="9">
-        <v>1.13161373138428</v>
-      </c>
-      <c r="G128" s="9">
-        <v>1.2589085102081301</v>
-      </c>
-      <c r="H128" s="9">
-        <v>1.3034524917602499</v>
-      </c>
-      <c r="I128" s="9">
-        <v>1.3142342567443801</v>
-      </c>
-      <c r="J128" s="9">
-        <v>1.32596588134766</v>
-      </c>
-      <c r="K128" s="9">
-        <v>1.3338432312011701</v>
-      </c>
-      <c r="L128" s="9">
-        <v>1.37831139564514</v>
-      </c>
-      <c r="M128" s="9">
-        <v>1.38426542282105</v>
-      </c>
-      <c r="N128" s="9">
-        <v>1.3916041851043699</v>
-      </c>
-      <c r="O128" s="9">
-        <v>1.39873218536377</v>
-      </c>
-      <c r="P128" s="9">
-        <v>1.4039328098297099</v>
-      </c>
-      <c r="Q128" s="9">
-        <v>1.4069690704345701</v>
-      </c>
-      <c r="R128" s="9">
-        <v>1.41622591018677</v>
-      </c>
-      <c r="S128" s="9">
-        <v>1.42281818389893</v>
-      </c>
-      <c r="T128" s="9">
-        <v>1.428227186203</v>
-      </c>
-      <c r="U128" s="9">
-        <v>1.4434075355529801</v>
-      </c>
-      <c r="V128" s="9">
-        <v>1.4438579082489</v>
-      </c>
-      <c r="W128" s="9">
-        <v>1.4857082366943399</v>
-      </c>
-      <c r="X128" s="9">
-        <v>1.505038022995</v>
-      </c>
-    </row>
-    <row r="129" spans="1:24">
-      <c r="A129">
-        <v>1</v>
-      </c>
-      <c r="B129">
-        <v>200</v>
-      </c>
-      <c r="C129">
-        <v>20</v>
-      </c>
-      <c r="D129" t="s">
-        <v>4</v>
-      </c>
-      <c r="E129" s="9">
-        <v>0</v>
-      </c>
-      <c r="F129" s="9">
-        <v>1.13239121437073</v>
-      </c>
-      <c r="G129" s="9">
-        <v>1.1936345100402801</v>
-      </c>
-      <c r="H129" s="9">
-        <v>1.23045182228088</v>
-      </c>
-      <c r="I129" s="9">
-        <v>1.24361228942871</v>
-      </c>
-      <c r="J129" s="9">
-        <v>1.24760365486145</v>
-      </c>
-      <c r="K129" s="9">
-        <v>1.3443174362182599</v>
-      </c>
-      <c r="L129" s="9">
-        <v>1.3454794883728001</v>
-      </c>
-      <c r="M129" s="9">
-        <v>1.35042977333069</v>
-      </c>
-      <c r="N129" s="9">
-        <v>1.3740544319152801</v>
-      </c>
-      <c r="O129" s="9">
-        <v>1.3759953975677499</v>
-      </c>
-      <c r="P129" s="9">
-        <v>1.3957817554473899</v>
-      </c>
-      <c r="Q129" s="9">
-        <v>1.3958268165588399</v>
-      </c>
-      <c r="R129" s="9">
-        <v>1.3970041275024401</v>
-      </c>
-      <c r="S129" s="9">
-        <v>1.3998873233795199</v>
-      </c>
-      <c r="T129" s="9">
-        <v>1.4277136325836199</v>
-      </c>
-      <c r="U129" s="9">
-        <v>1.44063425064087</v>
-      </c>
-      <c r="V129" s="9">
-        <v>1.44746041297913</v>
-      </c>
-      <c r="W129" s="9">
-        <v>1.47566890716553</v>
-      </c>
-      <c r="X129" s="9">
-        <v>1.4875342845916699</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -13468,155 +15843,135 @@
         <v>0</v>
       </c>
       <c r="F130" s="9">
-        <v>1.1992371082305899</v>
+        <v>1.13277339935303</v>
       </c>
       <c r="G130" s="9">
-        <v>1.2042818069457999</v>
+        <v>1.26892066001892</v>
       </c>
       <c r="H130" s="9">
-        <v>1.2416586875915501</v>
+        <v>1.32430768013</v>
       </c>
       <c r="I130" s="9">
-        <v>1.25062251091003</v>
+        <v>1.34571433067322</v>
       </c>
       <c r="J130" s="9">
-        <v>1.3172702789306601</v>
+        <v>1.3531897068023699</v>
       </c>
       <c r="K130" s="9">
-        <v>1.32358026504517</v>
+        <v>1.3562877178192101</v>
       </c>
       <c r="L130" s="9">
-        <v>1.35020351409912</v>
+        <v>1.3660795688629199</v>
       </c>
       <c r="M130" s="9">
-        <v>1.35158038139343</v>
+        <v>1.3925323486328101</v>
       </c>
       <c r="N130" s="9">
-        <v>1.3516218662262001</v>
+        <v>1.39871501922607</v>
       </c>
       <c r="O130" s="9">
-        <v>1.3593719005584699</v>
+        <v>1.41660952568054</v>
       </c>
       <c r="P130" s="9">
-        <v>1.36141228675842</v>
+        <v>1.4243593215942401</v>
       </c>
       <c r="Q130" s="9">
-        <v>1.3616425991058401</v>
+        <v>1.4429688453674301</v>
       </c>
       <c r="R130" s="9">
-        <v>1.42873859405518</v>
+        <v>1.4472305774688701</v>
       </c>
       <c r="S130" s="9">
-        <v>1.4377815723419201</v>
+        <v>1.4472637176513701</v>
       </c>
       <c r="T130" s="9">
-        <v>1.44023084640503</v>
+        <v>1.5023815631866499</v>
       </c>
       <c r="U130" s="9">
-        <v>1.4460518360137899</v>
+        <v>1.5035367012023899</v>
       </c>
       <c r="V130" s="9">
-        <v>1.46034359931946</v>
+        <v>1.50749158859253</v>
       </c>
       <c r="W130" s="9">
-        <v>1.4826798439025899</v>
+        <v>1.5314638614654501</v>
       </c>
       <c r="X130" s="9">
-        <v>1.5941963195800799</v>
+        <v>1.74757647514343</v>
       </c>
     </row>
-    <row r="131" spans="1:24" s="4" customFormat="1">
-      <c r="A131" s="4">
+    <row r="131" spans="1:24">
+      <c r="A131">
         <v>1</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131">
         <v>200</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131">
         <v>20</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" t="s">
         <v>4</v>
       </c>
-      <c r="E131" s="7">
-        <f>AVERAGE(E126:E130)</f>
+      <c r="E131" s="9">
         <v>0</v>
       </c>
-      <c r="F131" s="7">
-        <f t="shared" ref="F131:X131" si="14">AVERAGE(F126:F130)</f>
-        <v>1.134583854675294</v>
-      </c>
-      <c r="G131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.2216729164123519</v>
-      </c>
-      <c r="H131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.271888113021848</v>
-      </c>
-      <c r="I131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.2871697425842279</v>
-      </c>
-      <c r="J131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.3087444782257081</v>
-      </c>
-      <c r="K131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.3358944416046139</v>
-      </c>
-      <c r="L131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.3526241779327399</v>
-      </c>
-      <c r="M131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.363151121139526</v>
-      </c>
-      <c r="N131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.3718045234680161</v>
-      </c>
-      <c r="O131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.3866124153137198</v>
-      </c>
-      <c r="P131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.3940712928771981</v>
-      </c>
-      <c r="Q131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.40191993713379</v>
-      </c>
-      <c r="R131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.4200039863586442</v>
-      </c>
-      <c r="S131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.4244774341583279</v>
-      </c>
-      <c r="T131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.4443694114685059</v>
-      </c>
-      <c r="U131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.4550153732299802</v>
-      </c>
-      <c r="V131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.4636053085327159</v>
-      </c>
-      <c r="W131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.4868871212005621</v>
-      </c>
-      <c r="X131" s="7">
-        <f t="shared" si="14"/>
-        <v>1.566001653671264</v>
+      <c r="F131" s="9">
+        <v>1.07690382003784</v>
+      </c>
+      <c r="G131" s="9">
+        <v>1.1826190948486299</v>
+      </c>
+      <c r="H131" s="9">
+        <v>1.2595698833465601</v>
+      </c>
+      <c r="I131" s="9">
+        <v>1.2816653251648</v>
+      </c>
+      <c r="J131" s="9">
+        <v>1.2996928691864</v>
+      </c>
+      <c r="K131" s="9">
+        <v>1.32144355773926</v>
+      </c>
+      <c r="L131" s="9">
+        <v>1.32304692268372</v>
+      </c>
+      <c r="M131" s="9">
+        <v>1.33694767951965</v>
+      </c>
+      <c r="N131" s="9">
+        <v>1.3430271148681601</v>
+      </c>
+      <c r="O131" s="9">
+        <v>1.38235306739807</v>
+      </c>
+      <c r="P131" s="9">
+        <v>1.38487029075623</v>
+      </c>
+      <c r="Q131" s="9">
+        <v>1.4021923542022701</v>
+      </c>
+      <c r="R131" s="9">
+        <v>1.4108207225799601</v>
+      </c>
+      <c r="S131" s="9">
+        <v>1.4146363735198999</v>
+      </c>
+      <c r="T131" s="9">
+        <v>1.4232938289642301</v>
+      </c>
+      <c r="U131" s="9">
+        <v>1.4414465427398699</v>
+      </c>
+      <c r="V131" s="9">
+        <v>1.45887303352356</v>
+      </c>
+      <c r="W131" s="9">
+        <v>1.4589147567748999</v>
+      </c>
+      <c r="X131" s="9">
+        <v>1.4956631660461399</v>
       </c>
     </row>
     <row r="132" spans="1:24">
@@ -13624,7 +15979,7 @@
         <v>1</v>
       </c>
       <c r="B132">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C132">
         <v>20</v>
@@ -13636,61 +15991,61 @@
         <v>0</v>
       </c>
       <c r="F132" s="9">
-        <v>1.1735157966613801</v>
+        <v>1.13161373138428</v>
       </c>
       <c r="G132" s="9">
-        <v>1.28132247924805</v>
+        <v>1.2589085102081301</v>
       </c>
       <c r="H132" s="9">
-        <v>1.32017374038696</v>
+        <v>1.3034524917602499</v>
       </c>
       <c r="I132" s="9">
-        <v>1.37465023994446</v>
+        <v>1.3142342567443801</v>
       </c>
       <c r="J132" s="9">
-        <v>1.38636374473572</v>
+        <v>1.32596588134766</v>
       </c>
       <c r="K132" s="9">
-        <v>1.4025063514709499</v>
+        <v>1.3338432312011701</v>
       </c>
       <c r="L132" s="9">
-        <v>1.4204969406127901</v>
+        <v>1.37831139564514</v>
       </c>
       <c r="M132" s="9">
-        <v>1.4309895038604701</v>
+        <v>1.38426542282105</v>
       </c>
       <c r="N132" s="9">
-        <v>1.4610409736633301</v>
+        <v>1.3916041851043699</v>
       </c>
       <c r="O132" s="9">
-        <v>1.4891672134399401</v>
+        <v>1.39873218536377</v>
       </c>
       <c r="P132" s="9">
-        <v>1.49186611175537</v>
+        <v>1.4039328098297099</v>
       </c>
       <c r="Q132" s="9">
-        <v>1.5325682163238501</v>
+        <v>1.4069690704345701</v>
       </c>
       <c r="R132" s="9">
-        <v>1.5454967021942101</v>
+        <v>1.41622591018677</v>
       </c>
       <c r="S132" s="9">
-        <v>1.56166791915894</v>
+        <v>1.42281818389893</v>
       </c>
       <c r="T132" s="9">
-        <v>1.5910003185272199</v>
+        <v>1.428227186203</v>
       </c>
       <c r="U132" s="9">
-        <v>1.60432052612305</v>
+        <v>1.4434075355529801</v>
       </c>
       <c r="V132" s="9">
-        <v>1.6133451461792001</v>
+        <v>1.4438579082489</v>
       </c>
       <c r="W132" s="9">
-        <v>1.6200983524322501</v>
+        <v>1.4857082366943399</v>
       </c>
       <c r="X132" s="9">
-        <v>1.7103569507598899</v>
+        <v>1.505038022995</v>
       </c>
     </row>
     <row r="133" spans="1:24">
@@ -13698,7 +16053,7 @@
         <v>1</v>
       </c>
       <c r="B133">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C133">
         <v>20</v>
@@ -13710,61 +16065,61 @@
         <v>0</v>
       </c>
       <c r="F133" s="9">
-        <v>1.2033045291900599</v>
+        <v>1.13239121437073</v>
       </c>
       <c r="G133" s="9">
-        <v>1.2040479183196999</v>
+        <v>1.1936345100402801</v>
       </c>
       <c r="H133" s="9">
-        <v>1.2999560832977299</v>
+        <v>1.23045182228088</v>
       </c>
       <c r="I133" s="9">
-        <v>1.3140513896942101</v>
+        <v>1.24361228942871</v>
       </c>
       <c r="J133" s="9">
-        <v>1.3372399806976301</v>
+        <v>1.24760365486145</v>
       </c>
       <c r="K133" s="9">
-        <v>1.36149907112122</v>
+        <v>1.3443174362182599</v>
       </c>
       <c r="L133" s="9">
-        <v>1.37598705291748</v>
+        <v>1.3454794883728001</v>
       </c>
       <c r="M133" s="9">
-        <v>1.38813257217407</v>
+        <v>1.35042977333069</v>
       </c>
       <c r="N133" s="9">
-        <v>1.3963809013366699</v>
+        <v>1.3740544319152801</v>
       </c>
       <c r="O133" s="9">
-        <v>1.39814352989197</v>
+        <v>1.3759953975677499</v>
       </c>
       <c r="P133" s="9">
-        <v>1.39955925941467</v>
+        <v>1.3957817554473899</v>
       </c>
       <c r="Q133" s="9">
-        <v>1.4139263629913299</v>
+        <v>1.3958268165588399</v>
       </c>
       <c r="R133" s="9">
-        <v>1.43430876731873</v>
+        <v>1.3970041275024401</v>
       </c>
       <c r="S133" s="9">
-        <v>1.4343779087066699</v>
+        <v>1.3998873233795199</v>
       </c>
       <c r="T133" s="9">
-        <v>1.4348342418670701</v>
+        <v>1.4277136325836199</v>
       </c>
       <c r="U133" s="9">
-        <v>1.4547986984252901</v>
+        <v>1.44063425064087</v>
       </c>
       <c r="V133" s="9">
-        <v>1.4589684009552</v>
+        <v>1.44746041297913</v>
       </c>
       <c r="W133" s="9">
-        <v>1.4634974002838099</v>
+        <v>1.47566890716553</v>
       </c>
       <c r="X133" s="9">
-        <v>1.4915409088134799</v>
+        <v>1.4875342845916699</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -13772,7 +16127,7 @@
         <v>1</v>
       </c>
       <c r="B134">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C134">
         <v>20</v>
@@ -13784,135 +16139,155 @@
         <v>0</v>
       </c>
       <c r="F134" s="9">
-        <v>1.17229151725769</v>
+        <v>1.1992371082305899</v>
       </c>
       <c r="G134" s="9">
-        <v>1.2132880687713601</v>
+        <v>1.2042818069457999</v>
       </c>
       <c r="H134" s="9">
-        <v>1.22002100944519</v>
+        <v>1.2416586875915501</v>
       </c>
       <c r="I134" s="9">
-        <v>1.23247718811035</v>
+        <v>1.25062251091003</v>
       </c>
       <c r="J134" s="9">
-        <v>1.2643780708312999</v>
+        <v>1.3172702789306601</v>
       </c>
       <c r="K134" s="9">
-        <v>1.3347470760345499</v>
+        <v>1.32358026504517</v>
       </c>
       <c r="L134" s="9">
-        <v>1.3524603843689</v>
+        <v>1.35020351409912</v>
       </c>
       <c r="M134" s="9">
-        <v>1.3677990436553999</v>
+        <v>1.35158038139343</v>
       </c>
       <c r="N134" s="9">
-        <v>1.37048816680908</v>
+        <v>1.3516218662262001</v>
       </c>
       <c r="O134" s="9">
-        <v>1.37424468994141</v>
+        <v>1.3593719005584699</v>
       </c>
       <c r="P134" s="9">
-        <v>1.3813450336456301</v>
+        <v>1.36141228675842</v>
       </c>
       <c r="Q134" s="9">
-        <v>1.3862004280090301</v>
+        <v>1.3616425991058401</v>
       </c>
       <c r="R134" s="9">
-        <v>1.3956432342529299</v>
+        <v>1.42873859405518</v>
       </c>
       <c r="S134" s="9">
-        <v>1.44226622581482</v>
+        <v>1.4377815723419201</v>
       </c>
       <c r="T134" s="9">
-        <v>1.44952321052551</v>
+        <v>1.44023084640503</v>
       </c>
       <c r="U134" s="9">
-        <v>1.4637422561645499</v>
+        <v>1.4460518360137899</v>
       </c>
       <c r="V134" s="9">
-        <v>1.49092268943787</v>
+        <v>1.46034359931946</v>
       </c>
       <c r="W134" s="9">
-        <v>1.5169534683227499</v>
+        <v>1.4826798439025899</v>
       </c>
       <c r="X134" s="9">
-        <v>1.5263028144836399</v>
+        <v>1.5941963195800799</v>
       </c>
     </row>
-    <row r="135" spans="1:24">
-      <c r="A135">
+    <row r="135" spans="1:24" s="4" customFormat="1">
+      <c r="A135" s="4">
         <v>1</v>
       </c>
-      <c r="B135">
-        <v>300</v>
-      </c>
-      <c r="C135">
+      <c r="B135" s="4">
+        <v>200</v>
+      </c>
+      <c r="C135" s="4">
         <v>20</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="9">
+      <c r="E135" s="7">
+        <f>AVERAGE(E130:E134)</f>
         <v>0</v>
       </c>
-      <c r="F135" s="9">
-        <v>1.10852599143982</v>
-      </c>
-      <c r="G135" s="9">
-        <v>1.1861550807952901</v>
-      </c>
-      <c r="H135" s="9">
-        <v>1.1881513595581099</v>
-      </c>
-      <c r="I135" s="9">
-        <v>1.2691688537597701</v>
-      </c>
-      <c r="J135" s="9">
-        <v>1.3466374874114999</v>
-      </c>
-      <c r="K135" s="9">
-        <v>1.3822562694549601</v>
-      </c>
-      <c r="L135" s="9">
-        <v>1.41714239120483</v>
-      </c>
-      <c r="M135" s="9">
-        <v>1.44168281555176</v>
-      </c>
-      <c r="N135" s="9">
-        <v>1.4639029502868699</v>
-      </c>
-      <c r="O135" s="9">
-        <v>1.4748833179473899</v>
-      </c>
-      <c r="P135" s="9">
-        <v>1.47672247886658</v>
-      </c>
-      <c r="Q135" s="9">
-        <v>1.4889760017395</v>
-      </c>
-      <c r="R135" s="9">
-        <v>1.5021884441375699</v>
-      </c>
-      <c r="S135" s="9">
-        <v>1.51796078681946</v>
-      </c>
-      <c r="T135" s="9">
-        <v>1.5203382968902599</v>
-      </c>
-      <c r="U135" s="9">
-        <v>1.55418825149536</v>
-      </c>
-      <c r="V135" s="9">
-        <v>1.5692279338836701</v>
-      </c>
-      <c r="W135" s="9">
-        <v>1.5876657962799099</v>
-      </c>
-      <c r="X135" s="9">
-        <v>1.6000113487243699</v>
+      <c r="F135" s="7">
+        <f t="shared" ref="F135:X135" si="14">AVERAGE(F130:F134)</f>
+        <v>1.134583854675294</v>
+      </c>
+      <c r="G135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.2216729164123519</v>
+      </c>
+      <c r="H135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.271888113021848</v>
+      </c>
+      <c r="I135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.2871697425842279</v>
+      </c>
+      <c r="J135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.3087444782257081</v>
+      </c>
+      <c r="K135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.3358944416046139</v>
+      </c>
+      <c r="L135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.3526241779327399</v>
+      </c>
+      <c r="M135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.363151121139526</v>
+      </c>
+      <c r="N135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.3718045234680161</v>
+      </c>
+      <c r="O135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.3866124153137198</v>
+      </c>
+      <c r="P135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.3940712928771981</v>
+      </c>
+      <c r="Q135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.40191993713379</v>
+      </c>
+      <c r="R135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.4200039863586442</v>
+      </c>
+      <c r="S135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.4244774341583279</v>
+      </c>
+      <c r="T135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.4443694114685059</v>
+      </c>
+      <c r="U135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.4550153732299802</v>
+      </c>
+      <c r="V135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.4636053085327159</v>
+      </c>
+      <c r="W135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.4868871212005621</v>
+      </c>
+      <c r="X135" s="7">
+        <f t="shared" si="14"/>
+        <v>1.566001653671264</v>
       </c>
     </row>
     <row r="136" spans="1:24">
@@ -13932,155 +16307,1379 @@
         <v>0</v>
       </c>
       <c r="F136" s="9">
+        <v>1.1735157966613801</v>
+      </c>
+      <c r="G136" s="9">
+        <v>1.28132247924805</v>
+      </c>
+      <c r="H136" s="9">
+        <v>1.32017374038696</v>
+      </c>
+      <c r="I136" s="9">
+        <v>1.37465023994446</v>
+      </c>
+      <c r="J136" s="9">
+        <v>1.38636374473572</v>
+      </c>
+      <c r="K136" s="9">
+        <v>1.4025063514709499</v>
+      </c>
+      <c r="L136" s="9">
+        <v>1.4204969406127901</v>
+      </c>
+      <c r="M136" s="9">
+        <v>1.4309895038604701</v>
+      </c>
+      <c r="N136" s="9">
+        <v>1.4610409736633301</v>
+      </c>
+      <c r="O136" s="9">
+        <v>1.4891672134399401</v>
+      </c>
+      <c r="P136" s="9">
+        <v>1.49186611175537</v>
+      </c>
+      <c r="Q136" s="9">
+        <v>1.5325682163238501</v>
+      </c>
+      <c r="R136" s="9">
+        <v>1.5454967021942101</v>
+      </c>
+      <c r="S136" s="9">
+        <v>1.56166791915894</v>
+      </c>
+      <c r="T136" s="9">
+        <v>1.5910003185272199</v>
+      </c>
+      <c r="U136" s="9">
+        <v>1.60432052612305</v>
+      </c>
+      <c r="V136" s="9">
+        <v>1.6133451461792001</v>
+      </c>
+      <c r="W136" s="9">
+        <v>1.6200983524322501</v>
+      </c>
+      <c r="X136" s="9">
+        <v>1.7103569507598899</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>300</v>
+      </c>
+      <c r="C137">
+        <v>20</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="9">
+        <v>0</v>
+      </c>
+      <c r="F137" s="9">
+        <v>1.2033045291900599</v>
+      </c>
+      <c r="G137" s="9">
+        <v>1.2040479183196999</v>
+      </c>
+      <c r="H137" s="9">
+        <v>1.2999560832977299</v>
+      </c>
+      <c r="I137" s="9">
+        <v>1.3140513896942101</v>
+      </c>
+      <c r="J137" s="9">
+        <v>1.3372399806976301</v>
+      </c>
+      <c r="K137" s="9">
+        <v>1.36149907112122</v>
+      </c>
+      <c r="L137" s="9">
+        <v>1.37598705291748</v>
+      </c>
+      <c r="M137" s="9">
+        <v>1.38813257217407</v>
+      </c>
+      <c r="N137" s="9">
+        <v>1.3963809013366699</v>
+      </c>
+      <c r="O137" s="9">
+        <v>1.39814352989197</v>
+      </c>
+      <c r="P137" s="9">
+        <v>1.39955925941467</v>
+      </c>
+      <c r="Q137" s="9">
+        <v>1.4139263629913299</v>
+      </c>
+      <c r="R137" s="9">
+        <v>1.43430876731873</v>
+      </c>
+      <c r="S137" s="9">
+        <v>1.4343779087066699</v>
+      </c>
+      <c r="T137" s="9">
+        <v>1.4348342418670701</v>
+      </c>
+      <c r="U137" s="9">
+        <v>1.4547986984252901</v>
+      </c>
+      <c r="V137" s="9">
+        <v>1.4589684009552</v>
+      </c>
+      <c r="W137" s="9">
+        <v>1.4634974002838099</v>
+      </c>
+      <c r="X137" s="9">
+        <v>1.4915409088134799</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>300</v>
+      </c>
+      <c r="C138">
+        <v>20</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" s="9">
+        <v>0</v>
+      </c>
+      <c r="F138" s="9">
+        <v>1.17229151725769</v>
+      </c>
+      <c r="G138" s="9">
+        <v>1.2132880687713601</v>
+      </c>
+      <c r="H138" s="9">
+        <v>1.22002100944519</v>
+      </c>
+      <c r="I138" s="9">
+        <v>1.23247718811035</v>
+      </c>
+      <c r="J138" s="9">
+        <v>1.2643780708312999</v>
+      </c>
+      <c r="K138" s="9">
+        <v>1.3347470760345499</v>
+      </c>
+      <c r="L138" s="9">
+        <v>1.3524603843689</v>
+      </c>
+      <c r="M138" s="9">
+        <v>1.3677990436553999</v>
+      </c>
+      <c r="N138" s="9">
+        <v>1.37048816680908</v>
+      </c>
+      <c r="O138" s="9">
+        <v>1.37424468994141</v>
+      </c>
+      <c r="P138" s="9">
+        <v>1.3813450336456301</v>
+      </c>
+      <c r="Q138" s="9">
+        <v>1.3862004280090301</v>
+      </c>
+      <c r="R138" s="9">
+        <v>1.3956432342529299</v>
+      </c>
+      <c r="S138" s="9">
+        <v>1.44226622581482</v>
+      </c>
+      <c r="T138" s="9">
+        <v>1.44952321052551</v>
+      </c>
+      <c r="U138" s="9">
+        <v>1.4637422561645499</v>
+      </c>
+      <c r="V138" s="9">
+        <v>1.49092268943787</v>
+      </c>
+      <c r="W138" s="9">
+        <v>1.5169534683227499</v>
+      </c>
+      <c r="X138" s="9">
+        <v>1.5263028144836399</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>300</v>
+      </c>
+      <c r="C139">
+        <v>20</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" s="9">
+        <v>0</v>
+      </c>
+      <c r="F139" s="9">
+        <v>1.10852599143982</v>
+      </c>
+      <c r="G139" s="9">
+        <v>1.1861550807952901</v>
+      </c>
+      <c r="H139" s="9">
+        <v>1.1881513595581099</v>
+      </c>
+      <c r="I139" s="9">
+        <v>1.2691688537597701</v>
+      </c>
+      <c r="J139" s="9">
+        <v>1.3466374874114999</v>
+      </c>
+      <c r="K139" s="9">
+        <v>1.3822562694549601</v>
+      </c>
+      <c r="L139" s="9">
+        <v>1.41714239120483</v>
+      </c>
+      <c r="M139" s="9">
+        <v>1.44168281555176</v>
+      </c>
+      <c r="N139" s="9">
+        <v>1.4639029502868699</v>
+      </c>
+      <c r="O139" s="9">
+        <v>1.4748833179473899</v>
+      </c>
+      <c r="P139" s="9">
+        <v>1.47672247886658</v>
+      </c>
+      <c r="Q139" s="9">
+        <v>1.4889760017395</v>
+      </c>
+      <c r="R139" s="9">
+        <v>1.5021884441375699</v>
+      </c>
+      <c r="S139" s="9">
+        <v>1.51796078681946</v>
+      </c>
+      <c r="T139" s="9">
+        <v>1.5203382968902599</v>
+      </c>
+      <c r="U139" s="9">
+        <v>1.55418825149536</v>
+      </c>
+      <c r="V139" s="9">
+        <v>1.5692279338836701</v>
+      </c>
+      <c r="W139" s="9">
+        <v>1.5876657962799099</v>
+      </c>
+      <c r="X139" s="9">
+        <v>1.6000113487243699</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>300</v>
+      </c>
+      <c r="C140">
+        <v>20</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4</v>
+      </c>
+      <c r="E140" s="9">
+        <v>0</v>
+      </c>
+      <c r="F140" s="9">
         <v>1.1863648891448999</v>
       </c>
-      <c r="G136" s="9">
+      <c r="G140" s="9">
         <v>1.24046802520752</v>
       </c>
-      <c r="H136" s="9">
+      <c r="H140" s="9">
         <v>1.3424391746521001</v>
       </c>
-      <c r="I136" s="9">
+      <c r="I140" s="9">
         <v>1.3491363525390601</v>
       </c>
-      <c r="J136" s="9">
+      <c r="J140" s="9">
         <v>1.3620142936706501</v>
       </c>
-      <c r="K136" s="9">
+      <c r="K140" s="9">
         <v>1.4396445751190201</v>
       </c>
-      <c r="L136" s="9">
+      <c r="L140" s="9">
         <v>1.4462244510650599</v>
       </c>
-      <c r="M136" s="9">
+      <c r="M140" s="9">
         <v>1.4528729915618901</v>
       </c>
-      <c r="N136" s="9">
+      <c r="N140" s="9">
         <v>1.4553635120391799</v>
       </c>
-      <c r="O136" s="9">
+      <c r="O140" s="9">
         <v>1.46061444282532</v>
       </c>
-      <c r="P136" s="9">
+      <c r="P140" s="9">
         <v>1.46891117095947</v>
       </c>
-      <c r="Q136" s="9">
+      <c r="Q140" s="9">
         <v>1.4730648994445801</v>
       </c>
-      <c r="R136" s="9">
+      <c r="R140" s="9">
         <v>1.4760708808898899</v>
       </c>
-      <c r="S136" s="9">
+      <c r="S140" s="9">
         <v>1.47906398773193</v>
       </c>
-      <c r="T136" s="9">
+      <c r="T140" s="9">
         <v>1.52519130706787</v>
       </c>
-      <c r="U136" s="9">
+      <c r="U140" s="9">
         <v>1.5420954227447501</v>
       </c>
-      <c r="V136" s="9">
+      <c r="V140" s="9">
         <v>1.5652048587799099</v>
       </c>
-      <c r="W136" s="9">
+      <c r="W140" s="9">
         <v>1.65511131286621</v>
       </c>
-      <c r="X136" s="9">
+      <c r="X140" s="9">
         <v>1.66649317741394</v>
       </c>
     </row>
-    <row r="137" spans="1:24" s="4" customFormat="1">
-      <c r="A137" s="4">
+    <row r="141" spans="1:24" s="4" customFormat="1">
+      <c r="A141" s="4">
         <v>1</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B141" s="4">
         <v>300</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C141" s="4">
         <v>20</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D141" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E137" s="7">
-        <f>AVERAGE(E132:E136)</f>
+      <c r="E141" s="7">
+        <f>AVERAGE(E136:E140)</f>
         <v>0</v>
       </c>
-      <c r="F137" s="7">
-        <f t="shared" ref="F137:X137" si="15">AVERAGE(F132:F136)</f>
+      <c r="F141" s="7">
+        <f t="shared" ref="F141:X141" si="15">AVERAGE(F136:F140)</f>
         <v>1.1688005447387702</v>
       </c>
-      <c r="G137" s="7">
+      <c r="G141" s="7">
         <f t="shared" si="15"/>
         <v>1.2250563144683841</v>
       </c>
-      <c r="H137" s="7">
+      <c r="H141" s="7">
         <f t="shared" si="15"/>
         <v>1.2741482734680178</v>
       </c>
-      <c r="I137" s="7">
+      <c r="I141" s="7">
         <f t="shared" si="15"/>
         <v>1.30789680480957</v>
       </c>
-      <c r="J137" s="7">
+      <c r="J141" s="7">
         <f t="shared" si="15"/>
         <v>1.33932671546936</v>
       </c>
-      <c r="K137" s="7">
+      <c r="K141" s="7">
         <f t="shared" si="15"/>
         <v>1.38413066864014</v>
       </c>
-      <c r="L137" s="7">
+      <c r="L141" s="7">
         <f t="shared" si="15"/>
         <v>1.4024622440338121</v>
       </c>
-      <c r="M137" s="7">
+      <c r="M141" s="7">
         <f t="shared" si="15"/>
         <v>1.4162953853607179</v>
       </c>
-      <c r="N137" s="7">
+      <c r="N141" s="7">
         <f t="shared" si="15"/>
         <v>1.429435300827026</v>
       </c>
-      <c r="O137" s="7">
+      <c r="O141" s="7">
         <f t="shared" si="15"/>
         <v>1.4394106388092061</v>
       </c>
-      <c r="P137" s="7">
+      <c r="P141" s="7">
         <f t="shared" si="15"/>
         <v>1.4436808109283441</v>
       </c>
-      <c r="Q137" s="7">
+      <c r="Q141" s="7">
         <f t="shared" si="15"/>
         <v>1.4589471817016579</v>
       </c>
-      <c r="R137" s="7">
+      <c r="R141" s="7">
         <f t="shared" si="15"/>
         <v>1.470741605758666</v>
       </c>
-      <c r="S137" s="7">
+      <c r="S141" s="7">
         <f t="shared" si="15"/>
         <v>1.487067365646364</v>
       </c>
-      <c r="T137" s="7">
+      <c r="T141" s="7">
         <f t="shared" si="15"/>
         <v>1.5041774749755858</v>
       </c>
-      <c r="U137" s="7">
+      <c r="U141" s="7">
         <f t="shared" si="15"/>
         <v>1.5238290309906</v>
       </c>
-      <c r="V137" s="7">
+      <c r="V141" s="7">
         <f t="shared" si="15"/>
         <v>1.5395338058471699</v>
       </c>
-      <c r="W137" s="7">
+      <c r="W141" s="7">
         <f t="shared" si="15"/>
         <v>1.568665266036986</v>
       </c>
-      <c r="X137" s="7">
+      <c r="X141" s="7">
         <f t="shared" si="15"/>
         <v>1.598941040039064</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>100</v>
+      </c>
+      <c r="C149">
+        <v>20</v>
+      </c>
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>1.14801573753357</v>
+      </c>
+      <c r="G149">
+        <v>1.2174549102783201</v>
+      </c>
+      <c r="H149">
+        <v>1.2562229633331301</v>
+      </c>
+      <c r="I149">
+        <v>1.3027250766754199</v>
+      </c>
+      <c r="J149">
+        <v>2.0749070644378702</v>
+      </c>
+      <c r="K149">
+        <v>2.0749692916870099</v>
+      </c>
+      <c r="L149">
+        <v>2.0939240455627401</v>
+      </c>
+      <c r="M149">
+        <v>2.15916848182678</v>
+      </c>
+      <c r="N149">
+        <v>2.16986155509949</v>
+      </c>
+      <c r="O149">
+        <v>2.17748951911926</v>
+      </c>
+      <c r="P149">
+        <v>2.1835520267486599</v>
+      </c>
+      <c r="Q149">
+        <v>2.1929850578308101</v>
+      </c>
+      <c r="R149">
+        <v>2.1979222297668501</v>
+      </c>
+      <c r="S149">
+        <v>2.2339844703674299</v>
+      </c>
+      <c r="T149">
+        <v>2.3178126811981201</v>
+      </c>
+      <c r="U149">
+        <v>3.14029884338379</v>
+      </c>
+      <c r="V149">
+        <v>3.1461963653564502</v>
+      </c>
+      <c r="W149">
+        <v>3.16316938400269</v>
+      </c>
+      <c r="X149">
+        <v>3.1726756095886199</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>100</v>
+      </c>
+      <c r="C150">
+        <v>20</v>
+      </c>
+      <c r="D150" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>1.18755435943604</v>
+      </c>
+      <c r="G150">
+        <v>1.22701215744019</v>
+      </c>
+      <c r="H150">
+        <v>1.2549178600311299</v>
+      </c>
+      <c r="I150">
+        <v>1.2781617641448999</v>
+      </c>
+      <c r="J150">
+        <v>1.2827780246734599</v>
+      </c>
+      <c r="K150">
+        <v>1.3515367507934599</v>
+      </c>
+      <c r="L150">
+        <v>1.9565703868866</v>
+      </c>
+      <c r="M150">
+        <v>1.97414207458496</v>
+      </c>
+      <c r="N150">
+        <v>1.97849273681641</v>
+      </c>
+      <c r="O150">
+        <v>2.1512408256530802</v>
+      </c>
+      <c r="P150">
+        <v>2.15252757072449</v>
+      </c>
+      <c r="Q150">
+        <v>2.1716656684875502</v>
+      </c>
+      <c r="R150">
+        <v>2.1942999362945601</v>
+      </c>
+      <c r="S150">
+        <v>2.1963031291961701</v>
+      </c>
+      <c r="T150">
+        <v>2.2072105407714799</v>
+      </c>
+      <c r="U150">
+        <v>2.26619577407837</v>
+      </c>
+      <c r="V150">
+        <v>2.9306888580322301</v>
+      </c>
+      <c r="W150">
+        <v>3.0633018016815199</v>
+      </c>
+      <c r="X150">
+        <v>3.8035416603088401</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>100</v>
+      </c>
+      <c r="C151">
+        <v>20</v>
+      </c>
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0.98840212821960405</v>
+      </c>
+      <c r="G151">
+        <v>1.16364741325378</v>
+      </c>
+      <c r="H151">
+        <v>1.2365031242370601</v>
+      </c>
+      <c r="I151">
+        <v>1.25605440139771</v>
+      </c>
+      <c r="J151">
+        <v>1.28769207000732</v>
+      </c>
+      <c r="K151">
+        <v>1.9566226005554199</v>
+      </c>
+      <c r="L151">
+        <v>2.1049873828887899</v>
+      </c>
+      <c r="M151">
+        <v>2.1320612430572501</v>
+      </c>
+      <c r="N151">
+        <v>2.13400459289551</v>
+      </c>
+      <c r="O151">
+        <v>2.14581370353699</v>
+      </c>
+      <c r="P151">
+        <v>2.1534128189086901</v>
+      </c>
+      <c r="Q151">
+        <v>2.2085597515106201</v>
+      </c>
+      <c r="R151">
+        <v>2.2177321910858199</v>
+      </c>
+      <c r="S151">
+        <v>2.2202811241149898</v>
+      </c>
+      <c r="T151">
+        <v>2.79443454742432</v>
+      </c>
+      <c r="U151">
+        <v>3.0815796852111799</v>
+      </c>
+      <c r="V151">
+        <v>3.1535017490386998</v>
+      </c>
+      <c r="W151">
+        <v>3.1555936336517298</v>
+      </c>
+      <c r="X151">
+        <v>3.1653845310211199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>100</v>
+      </c>
+      <c r="C152">
+        <v>20</v>
+      </c>
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>1.25952625274658</v>
+      </c>
+      <c r="G152">
+        <v>1.27232193946838</v>
+      </c>
+      <c r="H152">
+        <v>1.2949745655059799</v>
+      </c>
+      <c r="I152">
+        <v>1.9655358791351301</v>
+      </c>
+      <c r="J152">
+        <v>2.21863460540771</v>
+      </c>
+      <c r="K152">
+        <v>2.22161841392517</v>
+      </c>
+      <c r="L152">
+        <v>2.2275750637054399</v>
+      </c>
+      <c r="M152">
+        <v>2.2587926387786901</v>
+      </c>
+      <c r="N152">
+        <v>2.2597496509552002</v>
+      </c>
+      <c r="O152">
+        <v>2.2839908599853498</v>
+      </c>
+      <c r="P152">
+        <v>2.9667124748229998</v>
+      </c>
+      <c r="Q152">
+        <v>3.1171610355377202</v>
+      </c>
+      <c r="R152">
+        <v>3.1300251483917201</v>
+      </c>
+      <c r="S152">
+        <v>3.1773927211761501</v>
+      </c>
+      <c r="T152">
+        <v>3.1778712272643999</v>
+      </c>
+      <c r="U152">
+        <v>3.19399189949036</v>
+      </c>
+      <c r="V152">
+        <v>3.19814133644104</v>
+      </c>
+      <c r="W152">
+        <v>3.2180402278900102</v>
+      </c>
+      <c r="X152">
+        <v>4.0582344532012904</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>100</v>
+      </c>
+      <c r="C153">
+        <v>20</v>
+      </c>
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>1.2373783588409399</v>
+      </c>
+      <c r="G153">
+        <v>1.2996711730957</v>
+      </c>
+      <c r="H153">
+        <v>1.30717349052429</v>
+      </c>
+      <c r="I153">
+        <v>1.3318774700164799</v>
+      </c>
+      <c r="J153">
+        <v>2.1216340065002401</v>
+      </c>
+      <c r="K153">
+        <v>2.2259945869445801</v>
+      </c>
+      <c r="L153">
+        <v>2.2273499965667698</v>
+      </c>
+      <c r="M153">
+        <v>2.2328987121582</v>
+      </c>
+      <c r="N153">
+        <v>2.25722002983093</v>
+      </c>
+      <c r="O153">
+        <v>2.2685732841491699</v>
+      </c>
+      <c r="P153">
+        <v>2.2708833217620801</v>
+      </c>
+      <c r="Q153">
+        <v>2.2992289066314702</v>
+      </c>
+      <c r="R153">
+        <v>3.11682105064392</v>
+      </c>
+      <c r="S153">
+        <v>3.1508412361145002</v>
+      </c>
+      <c r="T153">
+        <v>3.2090330123901398</v>
+      </c>
+      <c r="U153">
+        <v>3.2124686241149898</v>
+      </c>
+      <c r="V153">
+        <v>3.2328617572784402</v>
+      </c>
+      <c r="W153">
+        <v>3.26994109153748</v>
+      </c>
+      <c r="X153">
+        <v>3.29653120040894</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" s="4" customFormat="1">
+      <c r="A154" s="4">
+        <v>1</v>
+      </c>
+      <c r="B154" s="4">
+        <v>100</v>
+      </c>
+      <c r="C154" s="4">
+        <v>20</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" s="7">
+        <f>AVERAGE(E149:E153)</f>
+        <v>0</v>
+      </c>
+      <c r="F154" s="7">
+        <f t="shared" ref="F154:X154" si="16">AVERAGE(F149:F153)</f>
+        <v>1.1641753673553468</v>
+      </c>
+      <c r="G154" s="7">
+        <f t="shared" si="16"/>
+        <v>1.2360215187072741</v>
+      </c>
+      <c r="H154" s="7">
+        <f t="shared" si="16"/>
+        <v>1.269958400726318</v>
+      </c>
+      <c r="I154" s="7">
+        <f t="shared" si="16"/>
+        <v>1.4268709182739279</v>
+      </c>
+      <c r="J154" s="7">
+        <f t="shared" si="16"/>
+        <v>1.79712915420532</v>
+      </c>
+      <c r="K154" s="7">
+        <f t="shared" si="16"/>
+        <v>1.9661483287811279</v>
+      </c>
+      <c r="L154" s="7">
+        <f t="shared" si="16"/>
+        <v>2.1220813751220673</v>
+      </c>
+      <c r="M154" s="7">
+        <f t="shared" si="16"/>
+        <v>2.1514126300811762</v>
+      </c>
+      <c r="N154" s="7">
+        <f t="shared" si="16"/>
+        <v>2.1598657131195083</v>
+      </c>
+      <c r="O154" s="7">
+        <f t="shared" si="16"/>
+        <v>2.2054216384887702</v>
+      </c>
+      <c r="P154" s="7">
+        <f t="shared" si="16"/>
+        <v>2.3454176425933837</v>
+      </c>
+      <c r="Q154" s="7">
+        <f t="shared" si="16"/>
+        <v>2.397920083999634</v>
+      </c>
+      <c r="R154" s="7">
+        <f t="shared" si="16"/>
+        <v>2.5713601112365745</v>
+      </c>
+      <c r="S154" s="7">
+        <f t="shared" si="16"/>
+        <v>2.5957605361938478</v>
+      </c>
+      <c r="T154" s="7">
+        <f t="shared" si="16"/>
+        <v>2.7412724018096921</v>
+      </c>
+      <c r="U154" s="7">
+        <f t="shared" si="16"/>
+        <v>2.9789069652557378</v>
+      </c>
+      <c r="V154" s="7">
+        <f t="shared" si="16"/>
+        <v>3.1322780132293722</v>
+      </c>
+      <c r="W154" s="7">
+        <f t="shared" si="16"/>
+        <v>3.1740092277526855</v>
+      </c>
+      <c r="X154" s="7">
+        <f t="shared" si="16"/>
+        <v>3.4992734909057619</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>100</v>
+      </c>
+      <c r="C157">
+        <v>20</v>
+      </c>
+      <c r="D157" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>1.20420169830322</v>
+      </c>
+      <c r="G157">
+        <v>1.2528316974639899</v>
+      </c>
+      <c r="H157">
+        <v>2.0507669448852499</v>
+      </c>
+      <c r="I157">
+        <v>2.1176085472106898</v>
+      </c>
+      <c r="J157">
+        <v>2.1251883506774898</v>
+      </c>
+      <c r="K157">
+        <v>2.1764755249023402</v>
+      </c>
+      <c r="L157">
+        <v>2.1934952735900901</v>
+      </c>
+      <c r="M157">
+        <v>2.2231640815734899</v>
+      </c>
+      <c r="N157">
+        <v>2.2700965404510498</v>
+      </c>
+      <c r="O157">
+        <v>2.9239187240600599</v>
+      </c>
+      <c r="P157">
+        <v>2.9864330291747998</v>
+      </c>
+      <c r="Q157">
+        <v>3.0525636672973602</v>
+      </c>
+      <c r="R157">
+        <v>3.0844879150390598</v>
+      </c>
+      <c r="S157">
+        <v>3.1447770595550502</v>
+      </c>
+      <c r="T157">
+        <v>3.1472244262695299</v>
+      </c>
+      <c r="U157">
+        <v>3.1546664237976101</v>
+      </c>
+      <c r="V157">
+        <v>3.1624588966369598</v>
+      </c>
+      <c r="W157">
+        <v>3.1786081790924099</v>
+      </c>
+      <c r="X157">
+        <v>3.2066745758056601</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>100</v>
+      </c>
+      <c r="C158">
+        <v>20</v>
+      </c>
+      <c r="D158" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>1.27233219146729</v>
+      </c>
+      <c r="G158">
+        <v>1.2753779888153101</v>
+      </c>
+      <c r="H158">
+        <v>1.3211357593536399</v>
+      </c>
+      <c r="I158">
+        <v>2.0095729827880899</v>
+      </c>
+      <c r="J158">
+        <v>2.1078760623931898</v>
+      </c>
+      <c r="K158">
+        <v>2.22399926185608</v>
+      </c>
+      <c r="L158">
+        <v>2.2261157035827601</v>
+      </c>
+      <c r="M158">
+        <v>2.2360911369323699</v>
+      </c>
+      <c r="N158">
+        <v>2.2629611492157</v>
+      </c>
+      <c r="O158">
+        <v>2.2739055156707799</v>
+      </c>
+      <c r="P158">
+        <v>2.2885701656341602</v>
+      </c>
+      <c r="Q158">
+        <v>3.1284842491149898</v>
+      </c>
+      <c r="R158">
+        <v>3.1682162284851101</v>
+      </c>
+      <c r="S158">
+        <v>3.1891071796417201</v>
+      </c>
+      <c r="T158">
+        <v>3.1976044178009002</v>
+      </c>
+      <c r="U158">
+        <v>3.2098944187164302</v>
+      </c>
+      <c r="V158">
+        <v>3.2148795127868701</v>
+      </c>
+      <c r="W158">
+        <v>3.2177643775939901</v>
+      </c>
+      <c r="X158">
+        <v>4.1148107051849401</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>100</v>
+      </c>
+      <c r="C159">
+        <v>20</v>
+      </c>
+      <c r="D159" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>1.2310316562652599</v>
+      </c>
+      <c r="G159">
+        <v>1.28700351715088</v>
+      </c>
+      <c r="H159">
+        <v>1.3257315158844001</v>
+      </c>
+      <c r="I159">
+        <v>2.13001656532288</v>
+      </c>
+      <c r="J159">
+        <v>2.2119340896606401</v>
+      </c>
+      <c r="K159">
+        <v>2.24599409103394</v>
+      </c>
+      <c r="L159">
+        <v>2.35215163230896</v>
+      </c>
+      <c r="M159">
+        <v>2.3522503376007098</v>
+      </c>
+      <c r="N159">
+        <v>2.3598561286926301</v>
+      </c>
+      <c r="O159">
+        <v>2.3847994804382302</v>
+      </c>
+      <c r="P159">
+        <v>2.49680519104004</v>
+      </c>
+      <c r="Q159">
+        <v>3.0202610492706299</v>
+      </c>
+      <c r="R159">
+        <v>3.0368959903717001</v>
+      </c>
+      <c r="S159">
+        <v>3.1564412117004399</v>
+      </c>
+      <c r="T159">
+        <v>3.1631674766540501</v>
+      </c>
+      <c r="U159">
+        <v>3.2848351001739502</v>
+      </c>
+      <c r="V159">
+        <v>3.2849040031433101</v>
+      </c>
+      <c r="W159">
+        <v>3.3530118465423602</v>
+      </c>
+      <c r="X159">
+        <v>3.3745865821838401</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>100</v>
+      </c>
+      <c r="C160">
+        <v>20</v>
+      </c>
+      <c r="D160" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>1.2310316562652599</v>
+      </c>
+      <c r="G160">
+        <v>1.28700351715088</v>
+      </c>
+      <c r="H160">
+        <v>1.3257315158844001</v>
+      </c>
+      <c r="I160">
+        <v>2.13001656532288</v>
+      </c>
+      <c r="J160">
+        <v>2.2119340896606401</v>
+      </c>
+      <c r="K160">
+        <v>2.24599409103394</v>
+      </c>
+      <c r="L160">
+        <v>2.35215163230896</v>
+      </c>
+      <c r="M160">
+        <v>2.3522503376007098</v>
+      </c>
+      <c r="N160">
+        <v>2.3598561286926301</v>
+      </c>
+      <c r="O160">
+        <v>2.3847994804382302</v>
+      </c>
+      <c r="P160">
+        <v>2.49680519104004</v>
+      </c>
+      <c r="Q160">
+        <v>3.0202610492706299</v>
+      </c>
+      <c r="R160">
+        <v>3.0368959903717001</v>
+      </c>
+      <c r="S160">
+        <v>3.1564412117004399</v>
+      </c>
+      <c r="T160">
+        <v>3.1631674766540501</v>
+      </c>
+      <c r="U160">
+        <v>3.2848351001739502</v>
+      </c>
+      <c r="V160">
+        <v>3.2849040031433101</v>
+      </c>
+      <c r="W160">
+        <v>3.3530118465423602</v>
+      </c>
+      <c r="X160">
+        <v>3.3745865821838401</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>100</v>
+      </c>
+      <c r="C161">
+        <v>20</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0.95712327957153298</v>
+      </c>
+      <c r="G161">
+        <v>1.1386456489562999</v>
+      </c>
+      <c r="H161">
+        <v>1.2270543575286901</v>
+      </c>
+      <c r="I161">
+        <v>1.2477664947509799</v>
+      </c>
+      <c r="J161">
+        <v>1.9181158542633101</v>
+      </c>
+      <c r="K161">
+        <v>2.0956847667694101</v>
+      </c>
+      <c r="L161">
+        <v>2.1447508335113499</v>
+      </c>
+      <c r="M161">
+        <v>2.1527876853942902</v>
+      </c>
+      <c r="N161">
+        <v>2.1954190731048602</v>
+      </c>
+      <c r="O161">
+        <v>2.19980120658875</v>
+      </c>
+      <c r="P161">
+        <v>2.23402619361877</v>
+      </c>
+      <c r="Q161">
+        <v>2.2399494647979701</v>
+      </c>
+      <c r="R161">
+        <v>3.0074017047882098</v>
+      </c>
+      <c r="S161">
+        <v>3.03284788131714</v>
+      </c>
+      <c r="T161">
+        <v>3.0559103488922101</v>
+      </c>
+      <c r="U161">
+        <v>3.07148265838623</v>
+      </c>
+      <c r="V161">
+        <v>3.09021997451782</v>
+      </c>
+      <c r="W161">
+        <v>3.1304526329040501</v>
+      </c>
+      <c r="X161">
+        <v>3.1590089797973602</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" s="4" customFormat="1">
+      <c r="A162" s="4">
+        <v>1</v>
+      </c>
+      <c r="B162" s="4">
+        <v>100</v>
+      </c>
+      <c r="C162" s="4">
+        <v>20</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="7">
+        <f>AVERAGE(E157:E161)</f>
+        <v>0</v>
+      </c>
+      <c r="F162" s="7">
+        <f t="shared" ref="F162:X162" si="17">AVERAGE(F157:F161)</f>
+        <v>1.1791440963745126</v>
+      </c>
+      <c r="G162" s="7">
+        <f t="shared" si="17"/>
+        <v>1.248172473907472</v>
+      </c>
+      <c r="H162" s="7">
+        <f t="shared" si="17"/>
+        <v>1.4500840187072761</v>
+      </c>
+      <c r="I162" s="7">
+        <f t="shared" si="17"/>
+        <v>1.9269962310791038</v>
+      </c>
+      <c r="J162" s="7">
+        <f t="shared" si="17"/>
+        <v>2.1150096893310542</v>
+      </c>
+      <c r="K162" s="7">
+        <f t="shared" si="17"/>
+        <v>2.197629547119142</v>
+      </c>
+      <c r="L162" s="7">
+        <f t="shared" si="17"/>
+        <v>2.253733015060424</v>
+      </c>
+      <c r="M162" s="7">
+        <f t="shared" si="17"/>
+        <v>2.263308715820314</v>
+      </c>
+      <c r="N162" s="7">
+        <f t="shared" si="17"/>
+        <v>2.2896378040313743</v>
+      </c>
+      <c r="O162" s="7">
+        <f t="shared" si="17"/>
+        <v>2.4334448814392102</v>
+      </c>
+      <c r="P162" s="7">
+        <f t="shared" si="17"/>
+        <v>2.5005279541015617</v>
+      </c>
+      <c r="Q162" s="7">
+        <f t="shared" si="17"/>
+        <v>2.8923038959503158</v>
+      </c>
+      <c r="R162" s="7">
+        <f t="shared" si="17"/>
+        <v>3.0667795658111561</v>
+      </c>
+      <c r="S162" s="7">
+        <f t="shared" si="17"/>
+        <v>3.1359229087829581</v>
+      </c>
+      <c r="T162" s="7">
+        <f t="shared" si="17"/>
+        <v>3.1454148292541477</v>
+      </c>
+      <c r="U162" s="7">
+        <f t="shared" si="17"/>
+        <v>3.201142740249634</v>
+      </c>
+      <c r="V162" s="7">
+        <f t="shared" si="17"/>
+        <v>3.2074732780456543</v>
+      </c>
+      <c r="W162" s="7">
+        <f t="shared" si="17"/>
+        <v>3.2465697765350341</v>
+      </c>
+      <c r="X162" s="7">
+        <f t="shared" si="17"/>
+        <v>3.4459334850311278</v>
       </c>
     </row>
   </sheetData>
@@ -14693,8 +18292,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.8"/>
@@ -14938,61 +18537,61 @@
         <v>0</v>
       </c>
       <c r="F4" s="7">
-        <v>1.2036578655242922</v>
+        <v>1.1519423590766067</v>
       </c>
       <c r="G4" s="7">
-        <v>1.2818399429321281</v>
+        <v>1.226349830627441</v>
       </c>
       <c r="H4" s="7">
-        <v>1.3037128448486319</v>
+        <v>1.2615478833516445</v>
       </c>
       <c r="I4" s="7">
-        <v>1.3169892311096201</v>
+        <v>1.2855362627241353</v>
       </c>
       <c r="J4" s="7">
-        <v>1.3274200439453139</v>
+        <v>1.302859067916871</v>
       </c>
       <c r="K4" s="7">
-        <v>1.3380074024200439</v>
+        <v>1.3159482744004989</v>
       </c>
       <c r="L4" s="7">
-        <v>1.3404846191406261</v>
+        <v>1.325089401668972</v>
       </c>
       <c r="M4" s="7">
-        <v>1.348879623413086</v>
+        <v>1.3369514147440589</v>
       </c>
       <c r="N4" s="7">
-        <v>1.3593670368194579</v>
+        <v>1.3448743820190421</v>
       </c>
       <c r="O4" s="7">
-        <v>1.3671456813812259</v>
+        <v>1.356208801269531</v>
       </c>
       <c r="P4" s="7">
-        <v>1.3692654609680157</v>
+        <v>1.359346522225273</v>
       </c>
       <c r="Q4" s="7">
-        <v>1.3722994327545142</v>
+        <v>1.3736121654510489</v>
       </c>
       <c r="R4" s="7">
-        <v>1.3800845146179179</v>
+        <v>1.3821247418721498</v>
       </c>
       <c r="S4" s="7">
-        <v>1.3852705478668201</v>
+        <v>1.3902217812008313</v>
       </c>
       <c r="T4" s="7">
-        <v>1.3944310188293461</v>
+        <v>1.3982756667666978</v>
       </c>
       <c r="U4" s="7">
-        <v>1.404668331146242</v>
+        <v>1.4077422353956444</v>
       </c>
       <c r="V4" s="7">
-        <v>1.416543960571288</v>
+        <v>1.4202059639824756</v>
       </c>
       <c r="W4" s="7">
-        <v>1.4571139335632322</v>
+        <v>1.4629779921637636</v>
       </c>
       <c r="X4" s="7">
-        <v>1.503542852401734</v>
+        <v>1.5048974884880923</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="4" customFormat="1">
@@ -15314,10 +18913,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.69921875" defaultRowHeight="13.8"/>
@@ -15329,64 +18928,64 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>0</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="12">
         <v>1</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="12">
         <v>2</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="12">
         <v>3</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="12">
         <v>4</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="12">
         <v>5</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="12">
         <v>6</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="12">
         <v>7</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="12">
         <v>8</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="12">
         <v>9</v>
       </c>
-      <c r="O1" s="13">
+      <c r="O1" s="12">
         <v>10</v>
       </c>
-      <c r="P1" s="13">
+      <c r="P1" s="12">
         <v>11</v>
       </c>
-      <c r="Q1" s="13">
+      <c r="Q1" s="12">
         <v>12</v>
       </c>
-      <c r="R1" s="13">
+      <c r="R1" s="12">
         <v>13</v>
       </c>
-      <c r="S1" s="13">
+      <c r="S1" s="12">
         <v>14</v>
       </c>
-      <c r="T1" s="13">
+      <c r="T1" s="12">
         <v>15</v>
       </c>
-      <c r="U1" s="13">
+      <c r="U1" s="12">
         <v>16</v>
       </c>
-      <c r="V1" s="13">
+      <c r="V1" s="12">
         <v>17</v>
       </c>
-      <c r="W1" s="13">
+      <c r="W1" s="12">
         <v>18</v>
       </c>
-      <c r="X1" s="13">
+      <c r="X1" s="12">
         <v>19</v>
       </c>
     </row>
@@ -15612,28 +19211,285 @@
         <v>3.1696265697479253</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="2" t="s">
+    <row r="6" spans="1:24" s="15" customFormat="1">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15">
+        <v>100</v>
+      </c>
+      <c r="C6" s="15">
+        <v>20</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="11">
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1.1519423590766067</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1.226349830627441</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1.2615478833516445</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1.2855362627241353</v>
+      </c>
+      <c r="J6" s="16">
+        <v>1.302859067916871</v>
+      </c>
+      <c r="K6" s="16">
+        <v>1.3159482744004989</v>
+      </c>
+      <c r="L6" s="16">
+        <v>1.325089401668972</v>
+      </c>
+      <c r="M6" s="16">
+        <v>1.3369514147440589</v>
+      </c>
+      <c r="N6" s="16">
+        <v>1.3448743820190421</v>
+      </c>
+      <c r="O6" s="16">
+        <v>1.356208801269531</v>
+      </c>
+      <c r="P6" s="16">
+        <v>1.359346522225273</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>1.3736121654510489</v>
+      </c>
+      <c r="R6" s="16">
+        <v>1.3821247418721498</v>
+      </c>
+      <c r="S6" s="16">
+        <v>1.3902217812008313</v>
+      </c>
+      <c r="T6" s="16">
+        <v>1.3982756667666978</v>
+      </c>
+      <c r="U6" s="16">
+        <v>1.4077422353956444</v>
+      </c>
+      <c r="V6" s="16">
+        <v>1.4202059639824756</v>
+      </c>
+      <c r="W6" s="16">
+        <v>1.4629779921637636</v>
+      </c>
+      <c r="X6" s="16">
+        <v>1.5048974884880923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="15" customFormat="1">
+      <c r="A7" s="15">
+        <v>1</v>
+      </c>
+      <c r="B7" s="15">
+        <v>100</v>
+      </c>
+      <c r="C7" s="15">
+        <v>20</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1.1641753673553468</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1.2360215187072741</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1.269958400726318</v>
+      </c>
+      <c r="I7" s="16">
+        <v>1.4268709182739279</v>
+      </c>
+      <c r="J7" s="16">
+        <v>1.79712915420532</v>
+      </c>
+      <c r="K7" s="16">
+        <v>1.9661483287811279</v>
+      </c>
+      <c r="L7" s="16">
+        <v>2.1220813751220673</v>
+      </c>
+      <c r="M7" s="16">
+        <v>2.1514126300811762</v>
+      </c>
+      <c r="N7" s="16">
+        <v>2.1598657131195083</v>
+      </c>
+      <c r="O7" s="16">
+        <v>2.2054216384887702</v>
+      </c>
+      <c r="P7" s="16">
+        <v>2.3454176425933837</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>2.397920083999634</v>
+      </c>
+      <c r="R7" s="16">
+        <v>2.5713601112365745</v>
+      </c>
+      <c r="S7" s="16">
+        <v>2.5957605361938478</v>
+      </c>
+      <c r="T7" s="16">
+        <v>2.7412724018096921</v>
+      </c>
+      <c r="U7" s="16">
+        <v>2.9789069652557378</v>
+      </c>
+      <c r="V7" s="16">
+        <v>3.1322780132293722</v>
+      </c>
+      <c r="W7" s="16">
+        <v>3.1740092277526855</v>
+      </c>
+      <c r="X7" s="16">
+        <v>3.4992734909057619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="15" customFormat="1">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15">
+        <v>100</v>
+      </c>
+      <c r="C8" s="15">
+        <v>20</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1.1791440963745126</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1.248172473907472</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1.4500840187072761</v>
+      </c>
+      <c r="I8" s="16">
+        <v>1.9269962310791038</v>
+      </c>
+      <c r="J8" s="16">
+        <v>2.1150096893310542</v>
+      </c>
+      <c r="K8" s="16">
+        <v>2.197629547119142</v>
+      </c>
+      <c r="L8" s="16">
+        <v>2.253733015060424</v>
+      </c>
+      <c r="M8" s="16">
+        <v>2.263308715820314</v>
+      </c>
+      <c r="N8" s="16">
+        <v>2.2896378040313743</v>
+      </c>
+      <c r="O8" s="16">
+        <v>2.4334448814392102</v>
+      </c>
+      <c r="P8" s="16">
+        <v>2.5005279541015617</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>2.8923038959503158</v>
+      </c>
+      <c r="R8" s="16">
+        <v>3.0667795658111561</v>
+      </c>
+      <c r="S8" s="16">
+        <v>3.1359229087829581</v>
+      </c>
+      <c r="T8" s="16">
+        <v>3.1454148292541477</v>
+      </c>
+      <c r="U8" s="16">
+        <v>3.201142740249634</v>
+      </c>
+      <c r="V8" s="16">
+        <v>3.2074732780456543</v>
+      </c>
+      <c r="W8" s="16">
+        <v>3.2465697765350341</v>
+      </c>
+      <c r="X8" s="16">
+        <v>3.4459334850311278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="11">
         <v>1.4340314524518971</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="4" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B18" s="11">
         <v>2.9743943214416495</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="4" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B19" s="11">
         <v>3.1696265697479253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="15">
+        <v>100</v>
+      </c>
+      <c r="B23" s="15"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="16">
+        <v>1.5048974884880923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="16">
+        <v>3.4992734909057619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="16">
+        <v>3.4459334850311278</v>
       </c>
     </row>
   </sheetData>
